--- a/BackTest/2019-10-31 BackTest FZZ.xlsx
+++ b/BackTest/2019-10-31 BackTest FZZ.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>0.21</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-10.00000000000022</v>
+      </c>
       <c r="L12" t="n">
         <v>6.391</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>0.2300000000000004</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-9.999999999999734</v>
+      </c>
       <c r="L13" t="n">
         <v>6.391</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>0.2400000000000002</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-26.31578947368406</v>
+      </c>
       <c r="L14" t="n">
         <v>6.388000000000001</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>0.2500000000000009</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-36.8421052631578</v>
+      </c>
       <c r="L15" t="n">
         <v>6.382000000000001</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>0.2600000000000007</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-39.99999999999982</v>
+      </c>
       <c r="L16" t="n">
         <v>6.374000000000001</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>0.2700000000000005</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-39.99999999999982</v>
+      </c>
       <c r="L17" t="n">
         <v>6.365</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>0.2700000000000005</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-24.99999999999986</v>
+      </c>
       <c r="L18" t="n">
         <v>6.357000000000001</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>0.3400000000000007</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-5.263157894736695</v>
+      </c>
       <c r="L19" t="n">
         <v>6.360000000000001</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>0.410000000000001</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-14.28571428571428</v>
+      </c>
       <c r="L20" t="n">
         <v>6.352000000000002</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>0.410000000000001</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-9.999999999999734</v>
+      </c>
       <c r="L21" t="n">
         <v>6.349000000000002</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>0.4500000000000011</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-36.3636363636363</v>
+      </c>
       <c r="L22" t="n">
         <v>6.343000000000003</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>0.4600000000000009</v>
       </c>
       <c r="K23" t="n">
-        <v>-19.99999999999992</v>
+        <v>-36.3636363636363</v>
       </c>
       <c r="L23" t="n">
         <v>6.334000000000002</v>
@@ -1466,7 +1488,7 @@
         <v>0.5400000000000009</v>
       </c>
       <c r="K24" t="n">
-        <v>-5.882352941176327</v>
+        <v>3.448275862069198</v>
       </c>
       <c r="L24" t="n">
         <v>6.334000000000003</v>
@@ -1515,7 +1537,7 @@
         <v>0.5500000000000007</v>
       </c>
       <c r="K25" t="n">
-        <v>-7.999999999999993</v>
+        <v>10.34482758620698</v>
       </c>
       <c r="L25" t="n">
         <v>6.336000000000004</v>
@@ -1564,7 +1586,7 @@
         <v>0.6400000000000006</v>
       </c>
       <c r="K26" t="n">
-        <v>-24.13793103448266</v>
+        <v>-13.51351351351346</v>
       </c>
       <c r="L26" t="n">
         <v>6.330000000000003</v>
@@ -1613,7 +1635,7 @@
         <v>0.6500000000000012</v>
       </c>
       <c r="K27" t="n">
-        <v>-25.42372881355931</v>
+        <v>-15.78947368421063</v>
       </c>
       <c r="L27" t="n">
         <v>6.324000000000003</v>
@@ -1662,7 +1684,7 @@
         <v>0.660000000000001</v>
       </c>
       <c r="K28" t="n">
-        <v>-25.42372881355931</v>
+        <v>-43.75000000000014</v>
       </c>
       <c r="L28" t="n">
         <v>6.317000000000003</v>
@@ -1711,7 +1733,7 @@
         <v>0.6700000000000008</v>
       </c>
       <c r="K29" t="n">
-        <v>-17.85714285714291</v>
+        <v>-23.07692307692329</v>
       </c>
       <c r="L29" t="n">
         <v>6.304000000000003</v>
@@ -1760,7 +1782,7 @@
         <v>0.6700000000000008</v>
       </c>
       <c r="K30" t="n">
-        <v>-26.92307692307696</v>
+        <v>-23.07692307692329</v>
       </c>
       <c r="L30" t="n">
         <v>6.298000000000004</v>
@@ -1809,7 +1831,7 @@
         <v>0.7200000000000015</v>
       </c>
       <c r="K31" t="n">
-        <v>-7.692307692307667</v>
+        <v>11.11111111111118</v>
       </c>
       <c r="L31" t="n">
         <v>6.297000000000004</v>
@@ -1860,7 +1882,7 @@
         <v>0.7700000000000022</v>
       </c>
       <c r="K32" t="n">
-        <v>-14.28571428571424</v>
+        <v>-3.225806451613106</v>
       </c>
       <c r="L32" t="n">
         <v>6.295000000000003</v>
@@ -1911,7 +1933,7 @@
         <v>0.8200000000000029</v>
       </c>
       <c r="K33" t="n">
-        <v>-8.474576271186374</v>
+        <v>-14.2857142857142</v>
       </c>
       <c r="L33" t="n">
         <v>6.299000000000004</v>
@@ -1962,7 +1984,7 @@
         <v>0.900000000000003</v>
       </c>
       <c r="K34" t="n">
-        <v>-18.18181818181812</v>
+        <v>-37.14285714285687</v>
       </c>
       <c r="L34" t="n">
         <v>6.287000000000003</v>
@@ -2013,7 +2035,7 @@
         <v>0.9700000000000024</v>
       </c>
       <c r="K35" t="n">
-        <v>-5.555555555555549</v>
+        <v>9.090909090908847</v>
       </c>
       <c r="L35" t="n">
         <v>6.281000000000004</v>
@@ -2064,7 +2086,7 @@
         <v>0.9700000000000024</v>
       </c>
       <c r="K36" t="n">
-        <v>-4.225352112676081</v>
+        <v>12.49999999999996</v>
       </c>
       <c r="L36" t="n">
         <v>6.284000000000003</v>
@@ -2115,7 +2137,7 @@
         <v>1.040000000000002</v>
       </c>
       <c r="K37" t="n">
-        <v>-11.68831168831165</v>
+        <v>-5.263157894736719</v>
       </c>
       <c r="L37" t="n">
         <v>6.281000000000003</v>
@@ -2166,7 +2188,7 @@
         <v>1.060000000000001</v>
       </c>
       <c r="K38" t="n">
-        <v>-8.860759493670912</v>
+        <v>-2.564102564102506</v>
       </c>
       <c r="L38" t="n">
         <v>6.281000000000004</v>
@@ -2217,7 +2239,7 @@
         <v>1.070000000000001</v>
       </c>
       <c r="K39" t="n">
-        <v>-20.54794520547949</v>
+        <v>-4.999999999999889</v>
       </c>
       <c r="L39" t="n">
         <v>6.279000000000003</v>
@@ -2268,7 +2290,7 @@
         <v>1.140000000000001</v>
       </c>
       <c r="K40" t="n">
-        <v>-1.3698630136986</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>6.284000000000004</v>
@@ -2319,7 +2341,7 @@
         <v>1.210000000000002</v>
       </c>
       <c r="K41" t="n">
-        <v>-10</v>
+        <v>-4.545454545454454</v>
       </c>
       <c r="L41" t="n">
         <v>6.277000000000005</v>
@@ -2370,7 +2392,7 @@
         <v>1.210000000000002</v>
       </c>
       <c r="K42" t="n">
-        <v>-5.263157894736842</v>
+        <v>-17.94871794871808</v>
       </c>
       <c r="L42" t="n">
         <v>6.275000000000004</v>
@@ -2421,7 +2443,7 @@
         <v>1.210000000000002</v>
       </c>
       <c r="K43" t="n">
-        <v>-4.000000000000028</v>
+        <v>3.225806451612848</v>
       </c>
       <c r="L43" t="n">
         <v>6.268000000000004</v>
@@ -2472,7 +2494,7 @@
         <v>1.270000000000001</v>
       </c>
       <c r="K44" t="n">
-        <v>-6.849315068493245</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>6.275000000000004</v>
@@ -2523,7 +2545,7 @@
         <v>1.280000000000002</v>
       </c>
       <c r="K45" t="n">
-        <v>-6.849315068493114</v>
+        <v>3.225806451613125</v>
       </c>
       <c r="L45" t="n">
         <v>6.276000000000003</v>
@@ -2574,7 +2596,7 @@
         <v>1.350000000000002</v>
       </c>
       <c r="K46" t="n">
-        <v>-4.225352112676081</v>
+        <v>3.22580645161283</v>
       </c>
       <c r="L46" t="n">
         <v>6.270000000000003</v>
@@ -2625,7 +2647,7 @@
         <v>1.360000000000002</v>
       </c>
       <c r="K47" t="n">
-        <v>-1.40845070422532</v>
+        <v>0</v>
       </c>
       <c r="L47" t="n">
         <v>6.272000000000004</v>
@@ -2676,7 +2698,7 @@
         <v>1.420000000000003</v>
       </c>
       <c r="K48" t="n">
-        <v>7.894736842105313</v>
+        <v>20</v>
       </c>
       <c r="L48" t="n">
         <v>6.278000000000004</v>
@@ -2727,7 +2749,7 @@
         <v>1.490000000000003</v>
       </c>
       <c r="K49" t="n">
-        <v>-2.439024390243844</v>
+        <v>-20</v>
       </c>
       <c r="L49" t="n">
         <v>6.278000000000003</v>
@@ -2778,7 +2800,7 @@
         <v>1.560000000000003</v>
       </c>
       <c r="K50" t="n">
-        <v>5.617977528089953</v>
+        <v>20</v>
       </c>
       <c r="L50" t="n">
         <v>6.278000000000002</v>
@@ -2829,7 +2851,7 @@
         <v>1.610000000000004</v>
       </c>
       <c r="K51" t="n">
-        <v>-5.617977528089953</v>
+        <v>4.999999999999867</v>
       </c>
       <c r="L51" t="n">
         <v>6.280000000000003</v>
@@ -2880,7 +2902,7 @@
         <v>1.670000000000004</v>
       </c>
       <c r="K52" t="n">
-        <v>6.666666666666707</v>
+        <v>17.391304347826</v>
       </c>
       <c r="L52" t="n">
         <v>6.288000000000002</v>
@@ -2931,7 +2953,7 @@
         <v>1.720000000000004</v>
       </c>
       <c r="K53" t="n">
-        <v>-4.444444444444443</v>
+        <v>-6.666666666666482</v>
       </c>
       <c r="L53" t="n">
         <v>6.291000000000002</v>
@@ -2982,7 +3004,7 @@
         <v>1.770000000000004</v>
       </c>
       <c r="K54" t="n">
-        <v>10.34482758620687</v>
+        <v>2.04081632653056</v>
       </c>
       <c r="L54" t="n">
         <v>6.293000000000002</v>
@@ -3033,7 +3055,7 @@
         <v>1.840000000000004</v>
       </c>
       <c r="K55" t="n">
-        <v>-5.747126436781577</v>
+        <v>2.04081632653056</v>
       </c>
       <c r="L55" t="n">
         <v>6.287000000000003</v>
@@ -3084,7 +3106,7 @@
         <v>1.900000000000005</v>
       </c>
       <c r="K56" t="n">
-        <v>1.075268817204371</v>
+        <v>11.11111111111115</v>
       </c>
       <c r="L56" t="n">
         <v>6.294000000000002</v>
@@ -3135,7 +3157,7 @@
         <v>1.900000000000005</v>
       </c>
       <c r="K57" t="n">
-        <v>9.302325581395325</v>
+        <v>0</v>
       </c>
       <c r="L57" t="n">
         <v>6.300000000000002</v>
@@ -3186,7 +3208,7 @@
         <v>1.900000000000005</v>
       </c>
       <c r="K58" t="n">
-        <v>7.142857142857173</v>
+        <v>17.07317073170731</v>
       </c>
       <c r="L58" t="n">
         <v>6.300000000000002</v>
@@ -3237,7 +3259,7 @@
         <v>1.910000000000005</v>
       </c>
       <c r="K59" t="n">
-        <v>9.523809523809494</v>
+        <v>2.857142857142784</v>
       </c>
       <c r="L59" t="n">
         <v>6.308000000000002</v>
@@ -3288,7 +3310,7 @@
         <v>2.020000000000005</v>
       </c>
       <c r="K60" t="n">
-        <v>13.63636363636359</v>
+        <v>41.46341463414643</v>
       </c>
       <c r="L60" t="n">
         <v>6.320000000000002</v>
@@ -3339,7 +3361,7 @@
         <v>2.020000000000005</v>
       </c>
       <c r="K61" t="n">
-        <v>23.45679012345675</v>
+        <v>31.42857142857147</v>
       </c>
       <c r="L61" t="n">
         <v>6.337000000000003</v>
@@ -3390,7 +3412,7 @@
         <v>2.130000000000005</v>
       </c>
       <c r="K62" t="n">
-        <v>8.695652173913018</v>
+        <v>12.19512195121944</v>
       </c>
       <c r="L62" t="n">
         <v>6.337000000000003</v>
@@ -3441,7 +3463,7 @@
         <v>2.240000000000006</v>
       </c>
       <c r="K63" t="n">
-        <v>18.44660194174754</v>
+        <v>23.40425531914893</v>
       </c>
       <c r="L63" t="n">
         <v>6.353000000000003</v>
@@ -3492,7 +3514,7 @@
         <v>2.240000000000006</v>
       </c>
       <c r="K64" t="n">
-        <v>13.40206185567012</v>
+        <v>45.00000000000001</v>
       </c>
       <c r="L64" t="n">
         <v>6.364000000000003</v>
@@ -3543,7 +3565,7 @@
         <v>2.350000000000006</v>
       </c>
       <c r="K65" t="n">
-        <v>0.9345794392523131</v>
+        <v>2.222222222222169</v>
       </c>
       <c r="L65" t="n">
         <v>6.371000000000003</v>
@@ -3594,7 +3616,7 @@
         <v>2.440000000000006</v>
       </c>
       <c r="K66" t="n">
-        <v>15.5963302752293</v>
+        <v>18.51851851851842</v>
       </c>
       <c r="L66" t="n">
         <v>6.381000000000002</v>
@@ -3645,7 +3667,7 @@
         <v>2.510000000000006</v>
       </c>
       <c r="K67" t="n">
-        <v>7.826086956521699</v>
+        <v>4.918032786885131</v>
       </c>
       <c r="L67" t="n">
         <v>6.384000000000002</v>
@@ -3696,7 +3718,7 @@
         <v>2.520000000000007</v>
       </c>
       <c r="K68" t="n">
-        <v>3.636363636363626</v>
+        <v>4.91803278688527</v>
       </c>
       <c r="L68" t="n">
         <v>6.388000000000003</v>
@@ -3747,7 +3769,7 @@
         <v>2.520000000000007</v>
       </c>
       <c r="K69" t="n">
-        <v>10.67961165048543</v>
+        <v>-15.99999999999996</v>
       </c>
       <c r="L69" t="n">
         <v>6.391000000000004</v>
@@ -3798,7 +3820,7 @@
         <v>2.520000000000007</v>
       </c>
       <c r="K70" t="n">
-        <v>4.166666666666655</v>
+        <v>-15.99999999999996</v>
       </c>
       <c r="L70" t="n">
         <v>6.383000000000004</v>
@@ -3849,7 +3871,7 @@
         <v>2.520000000000007</v>
       </c>
       <c r="K71" t="n">
-        <v>9.89010989010994</v>
+        <v>7.692307692307727</v>
       </c>
       <c r="L71" t="n">
         <v>6.375000000000004</v>
@@ -3900,7 +3922,7 @@
         <v>2.530000000000007</v>
       </c>
       <c r="K72" t="n">
-        <v>2.32558139534878</v>
+        <v>-31.03448275862075</v>
       </c>
       <c r="L72" t="n">
         <v>6.377000000000004</v>
@@ -3951,7 +3973,7 @@
         <v>2.530000000000007</v>
       </c>
       <c r="K73" t="n">
-        <v>8.641975308641866</v>
+        <v>-31.03448275862075</v>
       </c>
       <c r="L73" t="n">
         <v>6.368000000000004</v>
@@ -4002,7 +4024,7 @@
         <v>2.640000000000007</v>
       </c>
       <c r="K74" t="n">
-        <v>-10.34482758620685</v>
+        <v>-31.03448275862054</v>
       </c>
       <c r="L74" t="n">
         <v>6.348000000000003</v>
@@ -4053,7 +4075,7 @@
         <v>2.640000000000007</v>
       </c>
       <c r="K75" t="n">
-        <v>-2.499999999999939</v>
+        <v>-89.99999999999937</v>
       </c>
       <c r="L75" t="n">
         <v>6.339000000000003</v>
@@ -4104,7 +4126,7 @@
         <v>2.680000000000007</v>
       </c>
       <c r="K76" t="n">
-        <v>-5.12820512820512</v>
+        <v>-41.17647058823474</v>
       </c>
       <c r="L76" t="n">
         <v>6.325000000000003</v>
@@ -4155,7 +4177,7 @@
         <v>2.720000000000007</v>
       </c>
       <c r="K77" t="n">
-        <v>-9.756097560975594</v>
+        <v>-60</v>
       </c>
       <c r="L77" t="n">
         <v>6.314000000000002</v>
@@ -4206,7 +4228,7 @@
         <v>2.770000000000007</v>
       </c>
       <c r="K78" t="n">
-        <v>-3.448275862068987</v>
+        <v>-28.00000000000011</v>
       </c>
       <c r="L78" t="n">
         <v>6.307000000000002</v>
@@ -4257,7 +4279,7 @@
         <v>2.810000000000007</v>
       </c>
       <c r="K79" t="n">
-        <v>-8.888888888888875</v>
+        <v>-37.93103448275873</v>
       </c>
       <c r="L79" t="n">
         <v>6.296000000000002</v>
@@ -4308,7 +4330,7 @@
         <v>2.860000000000007</v>
       </c>
       <c r="K80" t="n">
-        <v>-16.6666666666667</v>
+        <v>-17.64705882352957</v>
       </c>
       <c r="L80" t="n">
         <v>6.290000000000002</v>
@@ -4359,7 +4381,7 @@
         <v>2.920000000000006</v>
       </c>
       <c r="K81" t="n">
-        <v>-22.22222222222221</v>
+        <v>-28.20512820512815</v>
       </c>
       <c r="L81" t="n">
         <v>6.278000000000001</v>
@@ -4410,7 +4432,7 @@
         <v>2.930000000000006</v>
       </c>
       <c r="K82" t="n">
-        <v>-10</v>
+        <v>-25</v>
       </c>
       <c r="L82" t="n">
         <v>6.268000000000002</v>
@@ -4461,7 +4483,7 @@
         <v>3.010000000000006</v>
       </c>
       <c r="K83" t="n">
-        <v>-14.28571428571432</v>
+        <v>24.32432432432434</v>
       </c>
       <c r="L83" t="n">
         <v>6.266000000000002</v>
@@ -4512,7 +4534,7 @@
         <v>3.090000000000006</v>
       </c>
       <c r="K84" t="n">
-        <v>-22.35294117647062</v>
+        <v>2.222222222222178</v>
       </c>
       <c r="L84" t="n">
         <v>6.267000000000002</v>
@@ -4563,7 +4585,7 @@
         <v>3.170000000000006</v>
       </c>
       <c r="K85" t="n">
-        <v>0</v>
+        <v>10.20408163265304</v>
       </c>
       <c r="L85" t="n">
         <v>6.276000000000002</v>
@@ -4614,7 +4636,7 @@
         <v>3.170000000000006</v>
       </c>
       <c r="K86" t="n">
-        <v>-12.32876712328764</v>
+        <v>20</v>
       </c>
       <c r="L86" t="n">
         <v>6.281000000000003</v>
@@ -4665,7 +4687,7 @@
         <v>3.180000000000006</v>
       </c>
       <c r="K87" t="n">
-        <v>-1.492537313432804</v>
+        <v>12.19512195121949</v>
       </c>
       <c r="L87" t="n">
         <v>6.291000000000003</v>
@@ -4716,7 +4738,7 @@
         <v>3.250000000000006</v>
       </c>
       <c r="K88" t="n">
-        <v>-12.32876712328778</v>
+        <v>4.545454545454454</v>
       </c>
       <c r="L88" t="n">
         <v>6.289000000000003</v>
@@ -4767,7 +4789,7 @@
         <v>3.310000000000007</v>
       </c>
       <c r="K89" t="n">
-        <v>-3.797468354430411</v>
+        <v>6.666666666666719</v>
       </c>
       <c r="L89" t="n">
         <v>6.297000000000004</v>
@@ -4818,7 +4840,7 @@
         <v>3.310000000000007</v>
       </c>
       <c r="K90" t="n">
-        <v>-3.797468354430411</v>
+        <v>23.07692307692301</v>
       </c>
       <c r="L90" t="n">
         <v>6.300000000000004</v>
@@ -4869,7 +4891,7 @@
         <v>3.370000000000007</v>
       </c>
       <c r="K91" t="n">
-        <v>-10.58823529411773</v>
+        <v>4.545454545454435</v>
       </c>
       <c r="L91" t="n">
         <v>6.303000000000003</v>
@@ -4920,7 +4942,7 @@
         <v>3.370000000000007</v>
       </c>
       <c r="K92" t="n">
-        <v>-9.523809523809534</v>
+        <v>-16.66666666666675</v>
       </c>
       <c r="L92" t="n">
         <v>6.305000000000004</v>
@@ -4971,7 +4993,7 @@
         <v>3.420000000000008</v>
       </c>
       <c r="K93" t="n">
-        <v>-3.370786516853858</v>
+        <v>21.21212121212118</v>
       </c>
       <c r="L93" t="n">
         <v>6.304000000000004</v>
@@ -5022,7 +5044,7 @@
         <v>3.500000000000008</v>
       </c>
       <c r="K94" t="n">
-        <v>18.60465116279069</v>
+        <v>21.21212121212118</v>
       </c>
       <c r="L94" t="n">
         <v>6.319000000000004</v>
@@ -5073,7 +5095,7 @@
         <v>3.540000000000008</v>
       </c>
       <c r="K95" t="n">
-        <v>22.22222222222221</v>
+        <v>29.72972972972967</v>
       </c>
       <c r="L95" t="n">
         <v>6.330000000000004</v>
@@ -5124,7 +5146,7 @@
         <v>3.550000000000008</v>
       </c>
       <c r="K96" t="n">
-        <v>19.54022988505744</v>
+        <v>29.72972972972967</v>
       </c>
       <c r="L96" t="n">
         <v>6.342000000000004</v>
@@ -5175,7 +5197,7 @@
         <v>3.550000000000008</v>
       </c>
       <c r="K97" t="n">
-        <v>25.30120481927707</v>
+        <v>59.99999999999989</v>
       </c>
       <c r="L97" t="n">
         <v>6.353000000000004</v>
@@ -5226,7 +5248,7 @@
         <v>3.670000000000008</v>
       </c>
       <c r="K98" t="n">
-        <v>4.444444444444443</v>
+        <v>0</v>
       </c>
       <c r="L98" t="n">
         <v>6.359000000000004</v>
@@ -5277,7 +5299,7 @@
         <v>3.680000000000008</v>
       </c>
       <c r="K99" t="n">
-        <v>10.34482758620687</v>
+        <v>2.702702702702638</v>
       </c>
       <c r="L99" t="n">
         <v>6.360000000000005</v>
@@ -5328,7 +5350,7 @@
         <v>3.790000000000008</v>
       </c>
       <c r="K100" t="n">
-        <v>16.12903225806453</v>
+        <v>42.85714285714292</v>
       </c>
       <c r="L100" t="n">
         <v>6.372000000000005</v>
@@ -5379,7 +5401,7 @@
         <v>3.800000000000008</v>
       </c>
       <c r="K101" t="n">
-        <v>24.99999999999993</v>
+        <v>44.18604651162794</v>
       </c>
       <c r="L101" t="n">
         <v>6.391000000000005</v>
@@ -5430,7 +5452,7 @@
         <v>3.810000000000008</v>
       </c>
       <c r="K102" t="n">
-        <v>24.99999999999993</v>
+        <v>38.46153846153836</v>
       </c>
       <c r="L102" t="n">
         <v>6.411000000000006</v>
@@ -5481,7 +5503,7 @@
         <v>3.930000000000008</v>
       </c>
       <c r="K103" t="n">
-        <v>2.173913043478211</v>
+        <v>-11.62790697674436</v>
       </c>
       <c r="L103" t="n">
         <v>6.414000000000004</v>
@@ -5532,7 +5554,7 @@
         <v>3.930000000000008</v>
       </c>
       <c r="K104" t="n">
-        <v>11.90476190476184</v>
+        <v>-23.07692307692329</v>
       </c>
       <c r="L104" t="n">
         <v>6.409000000000003</v>
@@ -5583,7 +5605,7 @@
         <v>4.010000000000008</v>
       </c>
       <c r="K105" t="n">
-        <v>11.90476190476184</v>
+        <v>-4.347826086956622</v>
       </c>
       <c r="L105" t="n">
         <v>6.408000000000004</v>
@@ -5634,7 +5656,7 @@
         <v>4.090000000000008</v>
       </c>
       <c r="K106" t="n">
-        <v>2.173913043478211</v>
+        <v>-18.51851851851861</v>
       </c>
       <c r="L106" t="n">
         <v>6.398000000000003</v>
@@ -5685,7 +5707,7 @@
         <v>4.170000000000008</v>
       </c>
       <c r="K107" t="n">
-        <v>9.090909090909058</v>
+        <v>19.99999999999993</v>
       </c>
       <c r="L107" t="n">
         <v>6.396000000000003</v>
@@ -5736,7 +5758,7 @@
         <v>4.230000000000008</v>
       </c>
       <c r="K108" t="n">
-        <v>10.2040816326531</v>
+        <v>5.454545454545501</v>
       </c>
       <c r="L108" t="n">
         <v>6.400000000000003</v>
@@ -5787,7 +5809,7 @@
         <v>4.240000000000007</v>
       </c>
       <c r="K109" t="n">
-        <v>5.376344086021483</v>
+        <v>-15.55555555555564</v>
       </c>
       <c r="L109" t="n">
         <v>6.404000000000002</v>
@@ -5838,7 +5860,7 @@
         <v>4.330000000000007</v>
       </c>
       <c r="K110" t="n">
-        <v>13.72549019607839</v>
+        <v>1.886792452830151</v>
       </c>
       <c r="L110" t="n">
         <v>6.406000000000001</v>
@@ -5889,7 +5911,7 @@
         <v>4.330000000000007</v>
       </c>
       <c r="K111" t="n">
-        <v>20.83333333333335</v>
+        <v>0</v>
       </c>
       <c r="L111" t="n">
         <v>6.407000000000002</v>
@@ -5940,7 +5962,7 @@
         <v>4.410000000000007</v>
       </c>
       <c r="K112" t="n">
-        <v>11.53846153846155</v>
+        <v>8.333333333333348</v>
       </c>
       <c r="L112" t="n">
         <v>6.399000000000003</v>
@@ -5991,7 +6013,7 @@
         <v>4.440000000000007</v>
       </c>
       <c r="K113" t="n">
-        <v>3.921568627450989</v>
+        <v>1.960784313725627</v>
       </c>
       <c r="L113" t="n">
         <v>6.400000000000003</v>
@@ -6042,7 +6064,7 @@
         <v>4.450000000000006</v>
       </c>
       <c r="K114" t="n">
-        <v>-3.157894736842136</v>
+        <v>-13.63636363636359</v>
       </c>
       <c r="L114" t="n">
         <v>6.402000000000004</v>
@@ -6093,7 +6115,7 @@
         <v>4.450000000000006</v>
       </c>
       <c r="K115" t="n">
-        <v>-7.692307692307737</v>
+        <v>5.555555555555706</v>
       </c>
       <c r="L115" t="n">
         <v>6.396000000000004</v>
@@ -6144,7 +6166,7 @@
         <v>4.460000000000006</v>
       </c>
       <c r="K116" t="n">
-        <v>-9.890109890109892</v>
+        <v>-24.1379310344827</v>
       </c>
       <c r="L116" t="n">
         <v>6.397000000000005</v>
@@ -6195,7 +6217,7 @@
         <v>4.530000000000006</v>
       </c>
       <c r="K117" t="n">
-        <v>-2.040816326530664</v>
+        <v>20</v>
       </c>
       <c r="L117" t="n">
         <v>6.397000000000005</v>
@@ -6246,7 +6268,7 @@
         <v>4.600000000000005</v>
       </c>
       <c r="K118" t="n">
-        <v>3.22580645161294</v>
+        <v>-5.555555555555474</v>
       </c>
       <c r="L118" t="n">
         <v>6.396000000000006</v>
@@ -6297,7 +6319,7 @@
         <v>4.600000000000005</v>
       </c>
       <c r="K119" t="n">
-        <v>2.173913043478318</v>
+        <v>-40.74074074074086</v>
       </c>
       <c r="L119" t="n">
         <v>6.394000000000006</v>
@@ -6348,7 +6370,7 @@
         <v>4.600000000000005</v>
       </c>
       <c r="K120" t="n">
-        <v>-11.11111111111114</v>
+        <v>-40.74074074074086</v>
       </c>
       <c r="L120" t="n">
         <v>6.383000000000007</v>
@@ -6399,7 +6421,7 @@
         <v>4.610000000000006</v>
       </c>
       <c r="K121" t="n">
-        <v>-13.58024691358032</v>
+        <v>-20.00000000000018</v>
       </c>
       <c r="L121" t="n">
         <v>6.371000000000007</v>
@@ -6450,7 +6472,7 @@
         <v>4.620000000000005</v>
       </c>
       <c r="K122" t="n">
-        <v>-16.04938271604941</v>
+        <v>-11.11111111111144</v>
       </c>
       <c r="L122" t="n">
         <v>6.366000000000007</v>
@@ -6501,7 +6523,7 @@
         <v>4.630000000000005</v>
       </c>
       <c r="K123" t="n">
-        <v>-2.857142857142807</v>
+        <v>-22.22222222222239</v>
       </c>
       <c r="L123" t="n">
         <v>6.363000000000007</v>
@@ -6552,7 +6574,7 @@
         <v>4.630000000000005</v>
       </c>
       <c r="K124" t="n">
-        <v>-2.857142857142807</v>
+        <v>-22.22222222222239</v>
       </c>
       <c r="L124" t="n">
         <v>6.359000000000007</v>
@@ -6603,7 +6625,7 @@
         <v>4.640000000000005</v>
       </c>
       <c r="K125" t="n">
-        <v>-17.46031746031745</v>
+        <v>-22.22222222222239</v>
       </c>
       <c r="L125" t="n">
         <v>6.354000000000007</v>
@@ -6654,7 +6676,7 @@
         <v>4.640000000000005</v>
       </c>
       <c r="K126" t="n">
-        <v>-5.454545454545366</v>
+        <v>-100</v>
       </c>
       <c r="L126" t="n">
         <v>6.350000000000007</v>
@@ -6705,7 +6727,7 @@
         <v>4.650000000000006</v>
       </c>
       <c r="K127" t="n">
-        <v>-25.00000000000014</v>
+        <v>-100</v>
       </c>
       <c r="L127" t="n">
         <v>6.338000000000007</v>
@@ -6756,7 +6778,7 @@
         <v>4.660000000000006</v>
       </c>
       <c r="K128" t="n">
-        <v>-11.62790697674418</v>
+        <v>-66.66666666666518</v>
       </c>
       <c r="L128" t="n">
         <v>6.334000000000008</v>
@@ -6807,7 +6829,7 @@
         <v>4.670000000000007</v>
       </c>
       <c r="K129" t="n">
-        <v>-16.27906976744194</v>
+        <v>-71.42857142857034</v>
       </c>
       <c r="L129" t="n">
         <v>6.329000000000008</v>
@@ -6858,7 +6880,7 @@
         <v>4.710000000000007</v>
       </c>
       <c r="K130" t="n">
-        <v>-31.57894736842109</v>
+        <v>0</v>
       </c>
       <c r="L130" t="n">
         <v>6.328000000000007</v>
@@ -6909,7 +6931,7 @@
         <v>4.710000000000007</v>
       </c>
       <c r="K131" t="n">
-        <v>-31.57894736842109</v>
+        <v>11.11111111111067</v>
       </c>
       <c r="L131" t="n">
         <v>6.328000000000007</v>
@@ -6960,7 +6982,7 @@
         <v>4.740000000000006</v>
       </c>
       <c r="K132" t="n">
-        <v>-21.21212121212108</v>
+        <v>-9.090909090908797</v>
       </c>
       <c r="L132" t="n">
         <v>6.326000000000006</v>
@@ -7011,7 +7033,7 @@
         <v>4.790000000000006</v>
       </c>
       <c r="K133" t="n">
-        <v>2.857142857142799</v>
+        <v>24.99999999999986</v>
       </c>
       <c r="L133" t="n">
         <v>6.330000000000007</v>
@@ -7062,7 +7084,7 @@
         <v>4.790000000000006</v>
       </c>
       <c r="K134" t="n">
-        <v>0</v>
+        <v>33.33333333333294</v>
       </c>
       <c r="L134" t="n">
         <v>6.334000000000008</v>
@@ -7113,7 +7135,7 @@
         <v>4.830000000000006</v>
       </c>
       <c r="K135" t="n">
-        <v>-10.5263157894737</v>
+        <v>5.263157894736695</v>
       </c>
       <c r="L135" t="n">
         <v>6.335000000000007</v>
@@ -7164,7 +7186,7 @@
         <v>4.890000000000006</v>
       </c>
       <c r="K136" t="n">
-        <v>6.976744186046367</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L136" t="n">
         <v>6.342000000000007</v>
@@ -7215,7 +7237,7 @@
         <v>4.890000000000006</v>
       </c>
       <c r="K137" t="n">
-        <v>-11.11111111111111</v>
+        <v>30.43478260869545</v>
       </c>
       <c r="L137" t="n">
         <v>6.350000000000006</v>
@@ -7266,7 +7288,7 @@
         <v>4.900000000000007</v>
       </c>
       <c r="K138" t="n">
-        <v>13.33333333333328</v>
+        <v>39.1304347826091</v>
       </c>
       <c r="L138" t="n">
         <v>6.358000000000006</v>
@@ -7317,7 +7339,7 @@
         <v>4.910000000000007</v>
       </c>
       <c r="K139" t="n">
-        <v>9.677419354838431</v>
+        <v>20</v>
       </c>
       <c r="L139" t="n">
         <v>6.366000000000005</v>
@@ -7368,7 +7390,7 @@
         <v>4.940000000000007</v>
       </c>
       <c r="K140" t="n">
-        <v>0</v>
+        <v>4.347826086956824</v>
       </c>
       <c r="L140" t="n">
         <v>6.367000000000005</v>
@@ -7419,7 +7441,7 @@
         <v>4.940000000000007</v>
       </c>
       <c r="K141" t="n">
-        <v>3.030303030303226</v>
+        <v>20</v>
       </c>
       <c r="L141" t="n">
         <v>6.368000000000006</v>
@@ -7470,7 +7492,7 @@
         <v>4.980000000000007</v>
       </c>
       <c r="K142" t="n">
-        <v>16.66666666666675</v>
+        <v>15.78947368421063</v>
       </c>
       <c r="L142" t="n">
         <v>6.376000000000006</v>
@@ -7521,7 +7543,7 @@
         <v>4.980000000000007</v>
       </c>
       <c r="K143" t="n">
-        <v>20</v>
+        <v>15.78947368421063</v>
       </c>
       <c r="L143" t="n">
         <v>6.379000000000006</v>
@@ -7572,7 +7594,7 @@
         <v>4.990000000000006</v>
       </c>
       <c r="K144" t="n">
-        <v>22.22222222222217</v>
+        <v>50</v>
       </c>
       <c r="L144" t="n">
         <v>6.383000000000006</v>
@@ -7623,7 +7645,7 @@
         <v>5.030000000000006</v>
       </c>
       <c r="K145" t="n">
-        <v>12.82051282051273</v>
+        <v>-14.28571428571392</v>
       </c>
       <c r="L145" t="n">
         <v>6.387000000000006</v>
@@ -7674,7 +7696,7 @@
         <v>5.030000000000006</v>
       </c>
       <c r="K146" t="n">
-        <v>12.82051282051273</v>
+        <v>-14.28571428571392</v>
       </c>
       <c r="L146" t="n">
         <v>6.385000000000007</v>
@@ -7725,7 +7747,7 @@
         <v>5.070000000000007</v>
       </c>
       <c r="K147" t="n">
-        <v>23.80952380952389</v>
+        <v>5.882352941176348</v>
       </c>
       <c r="L147" t="n">
         <v>6.387000000000006</v>
@@ -7776,7 +7798,7 @@
         <v>5.100000000000007</v>
       </c>
       <c r="K148" t="n">
-        <v>13.63636363636354</v>
+        <v>-5.263157894736744</v>
       </c>
       <c r="L148" t="n">
         <v>6.385000000000006</v>
@@ -7827,7 +7849,7 @@
         <v>5.110000000000007</v>
       </c>
       <c r="K149" t="n">
-        <v>13.63636363636377</v>
+        <v>5.882352941176348</v>
       </c>
       <c r="L149" t="n">
         <v>6.383000000000005</v>
@@ -7878,7 +7900,7 @@
         <v>5.110000000000007</v>
       </c>
       <c r="K150" t="n">
-        <v>5.000000000000123</v>
+        <v>5.882352941176348</v>
       </c>
       <c r="L150" t="n">
         <v>6.384000000000006</v>
@@ -7929,7 +7951,7 @@
         <v>5.110000000000007</v>
       </c>
       <c r="K151" t="n">
-        <v>5.000000000000123</v>
+        <v>-23.07692307692329</v>
       </c>
       <c r="L151" t="n">
         <v>6.385000000000007</v>
@@ -7980,7 +8002,7 @@
         <v>5.120000000000006</v>
       </c>
       <c r="K152" t="n">
-        <v>15.78947368421043</v>
+        <v>-14.28571428571465</v>
       </c>
       <c r="L152" t="n">
         <v>6.383000000000006</v>
@@ -8031,7 +8053,7 @@
         <v>5.160000000000006</v>
       </c>
       <c r="K153" t="n">
-        <v>13.51351351351346</v>
+        <v>5.882352941176348</v>
       </c>
       <c r="L153" t="n">
         <v>6.385000000000006</v>
@@ -8082,7 +8104,7 @@
         <v>5.160000000000006</v>
       </c>
       <c r="K154" t="n">
-        <v>13.51351351351346</v>
+        <v>38.46153846153836</v>
       </c>
       <c r="L154" t="n">
         <v>6.386000000000005</v>
@@ -8133,7 +8155,7 @@
         <v>5.160000000000006</v>
       </c>
       <c r="K155" t="n">
-        <v>27.27272727272723</v>
+        <v>38.46153846153836</v>
       </c>
       <c r="L155" t="n">
         <v>6.391000000000006</v>
@@ -8184,7 +8206,7 @@
         <v>5.160000000000006</v>
       </c>
       <c r="K156" t="n">
-        <v>11.11111111111118</v>
+        <v>11.11111111111089</v>
       </c>
       <c r="L156" t="n">
         <v>6.396000000000006</v>
@@ -8235,7 +8257,7 @@
         <v>5.160000000000006</v>
       </c>
       <c r="K157" t="n">
-        <v>11.11111111111118</v>
+        <v>66.66666666666717</v>
       </c>
       <c r="L157" t="n">
         <v>6.397000000000006</v>
@@ -8290,7 +8312,7 @@
         <v>5.160000000000006</v>
       </c>
       <c r="K158" t="n">
-        <v>7.692307692307534</v>
+        <v>100</v>
       </c>
       <c r="L158" t="n">
         <v>6.401000000000006</v>
@@ -8347,7 +8369,7 @@
         <v>5.160000000000006</v>
       </c>
       <c r="K159" t="n">
-        <v>12.00000000000014</v>
+        <v>100</v>
       </c>
       <c r="L159" t="n">
         <v>6.406000000000006</v>
@@ -8402,7 +8424,7 @@
         <v>5.200000000000006</v>
       </c>
       <c r="K160" t="n">
-        <v>7.692307692307534</v>
+        <v>11.11111111111089</v>
       </c>
       <c r="L160" t="n">
         <v>6.407000000000005</v>
@@ -8459,7 +8481,7 @@
         <v>5.240000000000006</v>
       </c>
       <c r="K161" t="n">
-        <v>19.99999999999988</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L161" t="n">
         <v>6.412000000000004</v>
@@ -8516,7 +8538,7 @@
         <v>5.250000000000006</v>
       </c>
       <c r="K162" t="n">
-        <v>3.70370370370363</v>
+        <v>-11.11111111111089</v>
       </c>
       <c r="L162" t="n">
         <v>6.415000000000004</v>
@@ -8573,7 +8595,7 @@
         <v>5.280000000000006</v>
       </c>
       <c r="K163" t="n">
-        <v>-6.666666666666825</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L163" t="n">
         <v>6.411000000000004</v>
@@ -8630,7 +8652,7 @@
         <v>5.310000000000007</v>
       </c>
       <c r="K164" t="n">
-        <v>0</v>
+        <v>-6.666666666666508</v>
       </c>
       <c r="L164" t="n">
         <v>6.410000000000004</v>
@@ -8687,7 +8709,7 @@
         <v>5.340000000000007</v>
       </c>
       <c r="K165" t="n">
-        <v>3.22580645161283</v>
+        <v>-22.22222222222217</v>
       </c>
       <c r="L165" t="n">
         <v>6.406000000000003</v>
@@ -8744,7 +8766,7 @@
         <v>5.370000000000007</v>
       </c>
       <c r="K166" t="n">
-        <v>11.76470588235293</v>
+        <v>-4.761904761904641</v>
       </c>
       <c r="L166" t="n">
         <v>6.405000000000003</v>
@@ -8801,7 +8823,7 @@
         <v>5.400000000000007</v>
       </c>
       <c r="K167" t="n">
-        <v>-9.09090909090914</v>
+        <v>-16.6666666666666</v>
       </c>
       <c r="L167" t="n">
         <v>6.401000000000002</v>
@@ -8858,7 +8880,7 @@
         <v>5.410000000000007</v>
       </c>
       <c r="K168" t="n">
-        <v>-3.22580645161283</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="L168" t="n">
         <v>6.396000000000003</v>
@@ -8915,7 +8937,7 @@
         <v>5.410000000000007</v>
       </c>
       <c r="K169" t="n">
-        <v>0</v>
+        <v>-4.761904761904641</v>
       </c>
       <c r="L169" t="n">
         <v>6.391000000000003</v>
@@ -8972,7 +8994,7 @@
         <v>5.410000000000007</v>
       </c>
       <c r="K170" t="n">
-        <v>0</v>
+        <v>-29.41176470588211</v>
       </c>
       <c r="L170" t="n">
         <v>6.390000000000002</v>
@@ -9029,7 +9051,7 @@
         <v>5.450000000000007</v>
       </c>
       <c r="K171" t="n">
-        <v>11.76470588235293</v>
+        <v>0</v>
       </c>
       <c r="L171" t="n">
         <v>6.389000000000003</v>
@@ -9086,7 +9108,7 @@
         <v>5.500000000000007</v>
       </c>
       <c r="K172" t="n">
-        <v>-5.263157894736719</v>
+        <v>-9.09090909090887</v>
       </c>
       <c r="L172" t="n">
         <v>6.384000000000003</v>
@@ -9143,7 +9165,7 @@
         <v>5.500000000000007</v>
       </c>
       <c r="K173" t="n">
-        <v>-17.64705882352926</v>
+        <v>-26.31578947368406</v>
       </c>
       <c r="L173" t="n">
         <v>6.382000000000003</v>
@@ -9202,7 +9224,7 @@
         <v>5.550000000000007</v>
       </c>
       <c r="K174" t="n">
-        <v>-2.564102564102506</v>
+        <v>14.28571428571441</v>
       </c>
       <c r="L174" t="n">
         <v>6.382000000000003</v>
@@ -9265,7 +9287,7 @@
         <v>5.600000000000007</v>
       </c>
       <c r="K175" t="n">
-        <v>-13.63636363636354</v>
+        <v>-21.73913043478257</v>
       </c>
       <c r="L175" t="n">
         <v>6.380000000000003</v>
@@ -9328,7 +9350,7 @@
         <v>5.650000000000007</v>
       </c>
       <c r="K176" t="n">
-        <v>-2.040816326530568</v>
+        <v>12.00000000000014</v>
       </c>
       <c r="L176" t="n">
         <v>6.380000000000004</v>
@@ -9391,7 +9413,7 @@
         <v>5.680000000000007</v>
       </c>
       <c r="K177" t="n">
-        <v>-7.692307692307693</v>
+        <v>3.70370370370363</v>
       </c>
       <c r="L177" t="n">
         <v>6.380000000000003</v>
@@ -9454,7 +9476,7 @@
         <v>5.720000000000007</v>
       </c>
       <c r="K178" t="n">
-        <v>0</v>
+        <v>16.12903225806448</v>
       </c>
       <c r="L178" t="n">
         <v>6.385000000000003</v>
@@ -9513,7 +9535,7 @@
         <v>5.760000000000007</v>
       </c>
       <c r="K179" t="n">
-        <v>-6.666666666666667</v>
+        <v>2.857142857142799</v>
       </c>
       <c r="L179" t="n">
         <v>6.386000000000004</v>
@@ -9572,7 +9594,7 @@
         <v>5.790000000000007</v>
       </c>
       <c r="K180" t="n">
-        <v>-5.0847457627119</v>
+        <v>-17.64705882352957</v>
       </c>
       <c r="L180" t="n">
         <v>6.384000000000004</v>
@@ -9629,7 +9651,7 @@
         <v>5.790000000000007</v>
       </c>
       <c r="K181" t="n">
-        <v>-12.72727272727276</v>
+        <v>-3.448275862069198</v>
       </c>
       <c r="L181" t="n">
         <v>6.378000000000005</v>
@@ -9690,7 +9712,7 @@
         <v>5.800000000000007</v>
       </c>
       <c r="K182" t="n">
-        <v>-12.72727272727276</v>
+        <v>-6.666666666666825</v>
       </c>
       <c r="L182" t="n">
         <v>6.376000000000005</v>
@@ -9747,7 +9769,7 @@
         <v>5.800000000000007</v>
       </c>
       <c r="K183" t="n">
-        <v>-7.692307692307693</v>
+        <v>-28.00000000000011</v>
       </c>
       <c r="L183" t="n">
         <v>6.374000000000005</v>
@@ -9806,7 +9828,7 @@
         <v>5.860000000000007</v>
       </c>
       <c r="K184" t="n">
-        <v>-1.818181818181777</v>
+        <v>15.38461538461536</v>
       </c>
       <c r="L184" t="n">
         <v>6.373000000000006</v>
@@ -9867,7 +9889,7 @@
         <v>5.860000000000007</v>
       </c>
       <c r="K185" t="n">
-        <v>3.846153846153932</v>
+        <v>-4.761904761904641</v>
       </c>
       <c r="L185" t="n">
         <v>6.377000000000007</v>
@@ -9928,7 +9950,7 @@
         <v>5.910000000000008</v>
       </c>
       <c r="K186" t="n">
-        <v>-11.11111111111118</v>
+        <v>-13.0434782608696</v>
       </c>
       <c r="L186" t="n">
         <v>6.371000000000007</v>
@@ -9989,7 +10011,7 @@
         <v>5.960000000000009</v>
       </c>
       <c r="K187" t="n">
-        <v>3.571428571428645</v>
+        <v>-8.333333333333087</v>
       </c>
       <c r="L187" t="n">
         <v>6.373000000000006</v>
@@ -10050,7 +10072,7 @@
         <v>5.970000000000009</v>
       </c>
       <c r="K188" t="n">
-        <v>7.142857142857132</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L188" t="n">
         <v>6.372000000000007</v>
@@ -10111,7 +10133,7 @@
         <v>6.030000000000009</v>
       </c>
       <c r="K189" t="n">
-        <v>-3.225806451612968</v>
+        <v>0</v>
       </c>
       <c r="L189" t="n">
         <v>6.369000000000006</v>
@@ -10172,7 +10194,7 @@
         <v>6.08000000000001</v>
       </c>
       <c r="K190" t="n">
-        <v>4.477611940298527</v>
+        <v>17.24137931034491</v>
       </c>
       <c r="L190" t="n">
         <v>6.374000000000006</v>
@@ -10233,7 +10255,7 @@
         <v>6.130000000000011</v>
       </c>
       <c r="K191" t="n">
-        <v>-8.823529411764737</v>
+        <v>3.030303030302933</v>
       </c>
       <c r="L191" t="n">
         <v>6.374000000000006</v>
@@ -10294,7 +10316,7 @@
         <v>6.180000000000011</v>
       </c>
       <c r="K192" t="n">
-        <v>5.88235294117644</v>
+        <v>15.78947368421048</v>
       </c>
       <c r="L192" t="n">
         <v>6.380000000000005</v>
@@ -10355,7 +10377,7 @@
         <v>6.230000000000012</v>
       </c>
       <c r="K193" t="n">
-        <v>-1.369863013698714</v>
+        <v>-13.51351351351354</v>
       </c>
       <c r="L193" t="n">
         <v>6.381000000000005</v>
@@ -10412,7 +10434,7 @@
         <v>6.230000000000012</v>
       </c>
       <c r="K194" t="n">
-        <v>-8.823529411764714</v>
+        <v>-13.51351351351354</v>
       </c>
       <c r="L194" t="n">
         <v>6.376000000000004</v>
@@ -10469,7 +10491,7 @@
         <v>6.310000000000012</v>
       </c>
       <c r="K195" t="n">
-        <v>-12.67605633802818</v>
+        <v>-19.99999999999982</v>
       </c>
       <c r="L195" t="n">
         <v>6.363000000000005</v>
@@ -10526,7 +10548,7 @@
         <v>6.310000000000012</v>
       </c>
       <c r="K196" t="n">
-        <v>-21.21212121212112</v>
+        <v>-37.14285714285703</v>
       </c>
       <c r="L196" t="n">
         <v>6.355000000000005</v>
@@ -10583,7 +10605,7 @@
         <v>6.370000000000013</v>
       </c>
       <c r="K197" t="n">
-        <v>-7.246376811594117</v>
+        <v>-19.99999999999982</v>
       </c>
       <c r="L197" t="n">
         <v>6.348000000000005</v>
@@ -10640,7 +10662,7 @@
         <v>6.370000000000013</v>
       </c>
       <c r="K198" t="n">
-        <v>-13.8461538461537</v>
+        <v>-5.882352941176286</v>
       </c>
       <c r="L198" t="n">
         <v>6.340000000000006</v>
@@ -10697,7 +10719,7 @@
         <v>6.420000000000012</v>
       </c>
       <c r="K199" t="n">
-        <v>-15.15151515151497</v>
+        <v>-35.29411764705859</v>
       </c>
       <c r="L199" t="n">
         <v>6.333000000000006</v>
@@ -10748,7 +10770,7 @@
         <v>6.430000000000013</v>
       </c>
       <c r="K200" t="n">
-        <v>-12.4999999999999</v>
+        <v>-26.66666666666647</v>
       </c>
       <c r="L200" t="n">
         <v>6.320000000000007</v>
@@ -10799,7 +10821,7 @@
         <v>6.450000000000014</v>
       </c>
       <c r="K201" t="n">
-        <v>-9.090909090908944</v>
+        <v>-40.74074074074052</v>
       </c>
       <c r="L201" t="n">
         <v>6.314000000000006</v>
@@ -10850,7 +10872,7 @@
         <v>6.450000000000014</v>
       </c>
       <c r="K202" t="n">
-        <v>-7.692307692307587</v>
+        <v>-27.2727272727269</v>
       </c>
       <c r="L202" t="n">
         <v>6.303000000000006</v>
@@ -10901,7 +10923,7 @@
         <v>6.450000000000014</v>
       </c>
       <c r="K203" t="n">
-        <v>-7.692307692307587</v>
+        <v>-27.2727272727269</v>
       </c>
       <c r="L203" t="n">
         <v>6.297000000000006</v>
@@ -10952,7 +10974,7 @@
         <v>6.450000000000014</v>
       </c>
       <c r="K204" t="n">
-        <v>-18.64406779661003</v>
+        <v>14.28571428571447</v>
       </c>
       <c r="L204" t="n">
         <v>6.291000000000006</v>
@@ -11003,7 +11025,7 @@
         <v>6.460000000000013</v>
       </c>
       <c r="K205" t="n">
-        <v>-16.66666666666659</v>
+        <v>20</v>
       </c>
       <c r="L205" t="n">
         <v>6.294000000000007</v>
@@ -11054,7 +11076,7 @@
         <v>6.510000000000013</v>
       </c>
       <c r="K206" t="n">
-        <v>-16.66666666666647</v>
+        <v>-57.14285714285696</v>
       </c>
       <c r="L206" t="n">
         <v>6.292000000000007</v>
@@ -11105,7 +11127,7 @@
         <v>6.530000000000013</v>
       </c>
       <c r="K207" t="n">
-        <v>-29.82456140350856</v>
+        <v>-62.49999999999972</v>
       </c>
       <c r="L207" t="n">
         <v>6.282000000000008</v>
@@ -11156,7 +11178,7 @@
         <v>6.540000000000012</v>
       </c>
       <c r="K208" t="n">
-        <v>-29.82456140350856</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L208" t="n">
         <v>6.273000000000008</v>
@@ -11207,7 +11229,7 @@
         <v>6.550000000000012</v>
       </c>
       <c r="K209" t="n">
-        <v>-19.23076923076905</v>
+        <v>-16.66666666666642</v>
       </c>
       <c r="L209" t="n">
         <v>6.270000000000008</v>
@@ -11258,7 +11280,7 @@
         <v>6.590000000000012</v>
       </c>
       <c r="K210" t="n">
-        <v>-21.56862745098035</v>
+        <v>0</v>
       </c>
       <c r="L210" t="n">
         <v>6.272000000000008</v>
@@ -11309,7 +11331,7 @@
         <v>6.620000000000013</v>
       </c>
       <c r="K211" t="n">
-        <v>-6.122448979591681</v>
+        <v>17.64705882352966</v>
       </c>
       <c r="L211" t="n">
         <v>6.275000000000007</v>
@@ -11360,7 +11382,7 @@
         <v>6.710000000000012</v>
       </c>
       <c r="K212" t="n">
-        <v>-32.07547169811312</v>
+        <v>-23.07692307692303</v>
       </c>
       <c r="L212" t="n">
         <v>6.269000000000007</v>
@@ -11411,7 +11433,7 @@
         <v>6.710000000000012</v>
       </c>
       <c r="K213" t="n">
-        <v>-24.99999999999982</v>
+        <v>-23.07692307692303</v>
       </c>
       <c r="L213" t="n">
         <v>6.263000000000007</v>
@@ -11462,7 +11484,7 @@
         <v>6.730000000000012</v>
       </c>
       <c r="K214" t="n">
-        <v>-19.99999999999993</v>
+        <v>-18.51851851851854</v>
       </c>
       <c r="L214" t="n">
         <v>6.259000000000008</v>
@@ -11513,7 +11535,7 @@
         <v>6.770000000000012</v>
       </c>
       <c r="K215" t="n">
-        <v>4.347826086956622</v>
+        <v>15.38461538461546</v>
       </c>
       <c r="L215" t="n">
         <v>6.258000000000008</v>
@@ -11564,7 +11586,7 @@
         <v>6.880000000000012</v>
       </c>
       <c r="K216" t="n">
-        <v>22.80701754385978</v>
+        <v>48.5714285714286</v>
       </c>
       <c r="L216" t="n">
         <v>6.273000000000009</v>
@@ -11615,7 +11637,7 @@
         <v>6.880000000000012</v>
       </c>
       <c r="K217" t="n">
-        <v>13.72549019607849</v>
+        <v>47.05882352941182</v>
       </c>
       <c r="L217" t="n">
         <v>6.290000000000009</v>
@@ -11666,7 +11688,7 @@
         <v>6.890000000000013</v>
       </c>
       <c r="K218" t="n">
-        <v>11.53846153846145</v>
+        <v>41.17647058823511</v>
       </c>
       <c r="L218" t="n">
         <v>6.305000000000009</v>
@@ -11717,7 +11739,7 @@
         <v>6.900000000000014</v>
       </c>
       <c r="K219" t="n">
-        <v>24.99999999999995</v>
+        <v>35.48387096774188</v>
       </c>
       <c r="L219" t="n">
         <v>6.320000000000009</v>
@@ -11768,7 +11790,7 @@
         <v>6.910000000000014</v>
       </c>
       <c r="K220" t="n">
-        <v>24.99999999999995</v>
+        <v>24.1379310344824</v>
       </c>
       <c r="L220" t="n">
         <v>6.330000000000009</v>
@@ -11819,7 +11841,7 @@
         <v>6.950000000000014</v>
       </c>
       <c r="K221" t="n">
-        <v>27.99999999999989</v>
+        <v>83.33333333333235</v>
       </c>
       <c r="L221" t="n">
         <v>6.341000000000009</v>
@@ -11870,7 +11892,7 @@
         <v>6.970000000000015</v>
       </c>
       <c r="K222" t="n">
-        <v>30.76923076923072</v>
+        <v>84.61538461538373</v>
       </c>
       <c r="L222" t="n">
         <v>6.363000000000008</v>
@@ -11921,7 +11943,7 @@
         <v>6.970000000000015</v>
       </c>
       <c r="K223" t="n">
-        <v>30.76923076923072</v>
+        <v>83.3333333333324</v>
       </c>
       <c r="L223" t="n">
         <v>6.385000000000008</v>
@@ -11972,7 +11994,7 @@
         <v>6.990000000000014</v>
       </c>
       <c r="K224" t="n">
-        <v>33.33333333333323</v>
+        <v>81.81818181818079</v>
       </c>
       <c r="L224" t="n">
         <v>6.407000000000008</v>
@@ -12023,7 +12045,7 @@
         <v>7.070000000000014</v>
       </c>
       <c r="K225" t="n">
-        <v>14.75409836065568</v>
+        <v>-5.263157894737137</v>
       </c>
       <c r="L225" t="n">
         <v>6.417000000000007</v>
@@ -12074,7 +12096,7 @@
         <v>7.080000000000014</v>
       </c>
       <c r="K226" t="n">
-        <v>22.80701754385958</v>
+        <v>-10.00000000000013</v>
       </c>
       <c r="L226" t="n">
         <v>6.415000000000006</v>
@@ -12125,7 +12147,7 @@
         <v>7.120000000000014</v>
       </c>
       <c r="K227" t="n">
-        <v>18.64406779661002</v>
+        <v>-21.73913043478241</v>
       </c>
       <c r="L227" t="n">
         <v>6.409000000000006</v>
@@ -12176,7 +12198,7 @@
         <v>7.130000000000014</v>
       </c>
       <c r="K228" t="n">
-        <v>15.25423728813553</v>
+        <v>-30.43478260869572</v>
       </c>
       <c r="L228" t="n">
         <v>6.403000000000006</v>
@@ -12227,7 +12249,7 @@
         <v>7.150000000000015</v>
       </c>
       <c r="K229" t="n">
-        <v>9.999999999999897</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L229" t="n">
         <v>6.394000000000006</v>
@@ -12278,7 +12300,7 @@
         <v>7.340000000000015</v>
       </c>
       <c r="K230" t="n">
-        <v>27.9999999999999</v>
+        <v>17.948717948718</v>
       </c>
       <c r="L230" t="n">
         <v>6.405000000000006</v>
@@ -12329,7 +12351,7 @@
         <v>7.360000000000015</v>
       </c>
       <c r="K231" t="n">
-        <v>27.02702702702686</v>
+        <v>17.94871794871781</v>
       </c>
       <c r="L231" t="n">
         <v>6.414000000000004</v>
@@ -12380,7 +12402,7 @@
         <v>7.520000000000015</v>
       </c>
       <c r="K232" t="n">
-        <v>55.55555555555532</v>
+        <v>41.81818181818175</v>
       </c>
       <c r="L232" t="n">
         <v>6.437000000000005</v>
@@ -12431,7 +12453,7 @@
         <v>7.610000000000015</v>
       </c>
       <c r="K233" t="n">
-        <v>59.99999999999977</v>
+        <v>48.38709677419351</v>
       </c>
       <c r="L233" t="n">
         <v>6.469000000000004</v>
@@ -12482,7 +12504,7 @@
         <v>7.630000000000014</v>
       </c>
       <c r="K234" t="n">
-        <v>55.55555555555542</v>
+        <v>64.28571428571439</v>
       </c>
       <c r="L234" t="n">
         <v>6.497000000000004</v>
@@ -12533,7 +12555,7 @@
         <v>7.640000000000014</v>
       </c>
       <c r="K235" t="n">
-        <v>51.72413793103438</v>
+        <v>64.28571428571439</v>
       </c>
       <c r="L235" t="n">
         <v>6.532000000000004</v>
@@ -12584,7 +12606,7 @@
         <v>7.840000000000014</v>
       </c>
       <c r="K236" t="n">
-        <v>14.58333333333327</v>
+        <v>27.77777777777781</v>
       </c>
       <c r="L236" t="n">
         <v>6.548000000000004</v>
@@ -12635,7 +12657,7 @@
         <v>7.860000000000015</v>
       </c>
       <c r="K237" t="n">
-        <v>12.24489795918357</v>
+        <v>26.02739726027389</v>
       </c>
       <c r="L237" t="n">
         <v>6.566000000000004</v>
@@ -12686,7 +12708,7 @@
         <v>7.920000000000015</v>
       </c>
       <c r="K238" t="n">
-        <v>18.44660194174758</v>
+        <v>35.06493506493511</v>
       </c>
       <c r="L238" t="n">
         <v>6.591000000000004</v>
@@ -12737,7 +12759,7 @@
         <v>7.990000000000015</v>
       </c>
       <c r="K239" t="n">
-        <v>10.09174311926599</v>
+        <v>1.538461538461505</v>
       </c>
       <c r="L239" t="n">
         <v>6.611000000000004</v>
@@ -12788,7 +12810,7 @@
         <v>8.040000000000015</v>
       </c>
       <c r="K240" t="n">
-        <v>15.0442477876106</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L240" t="n">
         <v>6.617000000000004</v>
@@ -12839,7 +12861,7 @@
         <v>8.130000000000015</v>
       </c>
       <c r="K241" t="n">
-        <v>3.389830508474577</v>
+        <v>-34.4262295081967</v>
       </c>
       <c r="L241" t="n">
         <v>6.612000000000005</v>
@@ -12890,7 +12912,7 @@
         <v>8.180000000000014</v>
       </c>
       <c r="K242" t="n">
-        <v>5.785123966942103</v>
+        <v>-43.85964912280706</v>
       </c>
       <c r="L242" t="n">
         <v>6.596000000000004</v>
@@ -12941,7 +12963,7 @@
         <v>8.190000000000015</v>
       </c>
       <c r="K243" t="n">
-        <v>6.55737704918033</v>
+        <v>-39.28571428571415</v>
       </c>
       <c r="L243" t="n">
         <v>6.572000000000005</v>
@@ -12992,7 +13014,7 @@
         <v>8.210000000000015</v>
       </c>
       <c r="K244" t="n">
-        <v>3.278688524590165</v>
+        <v>-40.35087719298245</v>
       </c>
       <c r="L244" t="n">
         <v>6.548000000000004</v>
@@ -13043,7 +13065,7 @@
         <v>8.210000000000015</v>
       </c>
       <c r="K245" t="n">
-        <v>10.52631578947369</v>
+        <v>-8.108108108108153</v>
       </c>
       <c r="L245" t="n">
         <v>6.525000000000006</v>
@@ -13094,7 +13116,7 @@
         <v>8.220000000000015</v>
       </c>
       <c r="K246" t="n">
-        <v>10.52631578947369</v>
+        <v>-5.555555555555433</v>
       </c>
       <c r="L246" t="n">
         <v>6.521000000000005</v>
@@ -13145,7 +13167,7 @@
         <v>8.330000000000016</v>
       </c>
       <c r="K247" t="n">
-        <v>4.132231404958657</v>
+        <v>-46.34146341463413</v>
       </c>
       <c r="L247" t="n">
         <v>6.508000000000005</v>
@@ -13196,7 +13218,7 @@
         <v>8.330000000000016</v>
       </c>
       <c r="K248" t="n">
-        <v>4.999999999999959</v>
+        <v>-35.29411764705878</v>
       </c>
       <c r="L248" t="n">
         <v>6.489000000000006</v>
@@ -13247,7 +13269,7 @@
         <v>8.350000000000016</v>
       </c>
       <c r="K249" t="n">
-        <v>5.000000000000037</v>
+        <v>-61.2903225806449</v>
       </c>
       <c r="L249" t="n">
         <v>6.475000000000006</v>
@@ -13298,7 +13320,7 @@
         <v>8.350000000000016</v>
       </c>
       <c r="K250" t="n">
-        <v>-12.87128712871285</v>
+        <v>-45.45454545454516</v>
       </c>
       <c r="L250" t="n">
         <v>6.456000000000006</v>
@@ -13349,7 +13371,7 @@
         <v>8.350000000000016</v>
       </c>
       <c r="K251" t="n">
-        <v>-15.15151515151508</v>
+        <v>-88.23529411764585</v>
       </c>
       <c r="L251" t="n">
         <v>6.446000000000007</v>
@@ -13400,7 +13422,7 @@
         <v>8.350000000000016</v>
       </c>
       <c r="K252" t="n">
-        <v>-37.34939759036136</v>
+        <v>-100</v>
       </c>
       <c r="L252" t="n">
         <v>6.431000000000007</v>
@@ -13451,7 +13473,7 @@
         <v>8.400000000000016</v>
       </c>
       <c r="K253" t="n">
-        <v>-44.30379746835428</v>
+        <v>-47.36842105263118</v>
       </c>
       <c r="L253" t="n">
         <v>6.420000000000007</v>
@@ -13502,7 +13524,7 @@
         <v>8.450000000000017</v>
       </c>
       <c r="K254" t="n">
-        <v>-46.34146341463396</v>
+        <v>-58.33333333333272</v>
       </c>
       <c r="L254" t="n">
         <v>6.406000000000008</v>
@@ -13553,7 +13575,7 @@
         <v>8.450000000000017</v>
       </c>
       <c r="K255" t="n">
-        <v>-45.67901234567885</v>
+        <v>-56.52173913043419</v>
       </c>
       <c r="L255" t="n">
         <v>6.392000000000008</v>
@@ -13604,7 +13626,7 @@
         <v>8.460000000000017</v>
       </c>
       <c r="K256" t="n">
-        <v>-25.80645161290313</v>
+        <v>-7.692307692307482</v>
       </c>
       <c r="L256" t="n">
         <v>6.380000000000008</v>
@@ -13655,7 +13677,7 @@
         <v>8.590000000000018</v>
       </c>
       <c r="K257" t="n">
-        <v>-1.369863013698595</v>
+        <v>46.15384615384592</v>
       </c>
       <c r="L257" t="n">
         <v>6.392000000000008</v>
@@ -13706,7 +13728,7 @@
         <v>8.740000000000018</v>
       </c>
       <c r="K258" t="n">
-        <v>9.756097560975583</v>
+        <v>74.35897435897391</v>
       </c>
       <c r="L258" t="n">
         <v>6.419000000000008</v>
@@ -13757,7 +13779,7 @@
         <v>8.940000000000019</v>
       </c>
       <c r="K259" t="n">
-        <v>-5.263157894736803</v>
+        <v>15.25423728813548</v>
       </c>
       <c r="L259" t="n">
         <v>6.428000000000007</v>
@@ -13808,7 +13830,7 @@
         <v>9.000000000000018</v>
       </c>
       <c r="K260" t="n">
-        <v>-16.66666666666654</v>
+        <v>4.615384615384639</v>
       </c>
       <c r="L260" t="n">
         <v>6.431000000000007</v>
@@ -13859,7 +13881,7 @@
         <v>9.000000000000018</v>
       </c>
       <c r="K261" t="n">
-        <v>-8.045977011494159</v>
+        <v>4.615384615384639</v>
       </c>
       <c r="L261" t="n">
         <v>6.434000000000007</v>
@@ -13910,7 +13932,7 @@
         <v>9.010000000000019</v>
       </c>
       <c r="K262" t="n">
-        <v>-15.66265060240952</v>
+        <v>-4.918032786885263</v>
       </c>
       <c r="L262" t="n">
         <v>6.436000000000007</v>
@@ -13961,7 +13983,7 @@
         <v>9.020000000000021</v>
       </c>
       <c r="K263" t="n">
-        <v>-15.66265060240952</v>
+        <v>5.26315789473685</v>
       </c>
       <c r="L263" t="n">
         <v>6.434000000000007</v>
@@ -14012,7 +14034,7 @@
         <v>9.020000000000021</v>
       </c>
       <c r="K264" t="n">
-        <v>-13.58024691358008</v>
+        <v>5.26315789473685</v>
       </c>
       <c r="L264" t="n">
         <v>6.437000000000007</v>
@@ -14063,7 +14085,7 @@
         <v>9.030000000000022</v>
       </c>
       <c r="K265" t="n">
-        <v>-14.63414634146329</v>
+        <v>1.754385964912226</v>
       </c>
       <c r="L265" t="n">
         <v>6.439000000000007</v>
@@ -14114,7 +14136,7 @@
         <v>9.150000000000023</v>
       </c>
       <c r="K266" t="n">
-        <v>1.075268817204268</v>
+        <v>0</v>
       </c>
       <c r="L266" t="n">
         <v>6.452000000000008</v>
@@ -14165,7 +14187,7 @@
         <v>9.270000000000024</v>
       </c>
       <c r="K267" t="n">
-        <v>0</v>
+        <v>-50.94339622641456</v>
       </c>
       <c r="L267" t="n">
         <v>6.440000000000007</v>
@@ -14216,7 +14238,7 @@
         <v>9.270000000000024</v>
       </c>
       <c r="K268" t="n">
-        <v>0</v>
+        <v>-21.21212121212095</v>
       </c>
       <c r="L268" t="n">
         <v>6.413000000000008</v>
@@ -14267,7 +14289,7 @@
         <v>9.280000000000026</v>
       </c>
       <c r="K269" t="n">
-        <v>3.225806451612894</v>
+        <v>0</v>
       </c>
       <c r="L269" t="n">
         <v>6.407000000000009</v>
@@ -14318,7 +14340,7 @@
         <v>9.360000000000026</v>
       </c>
       <c r="K270" t="n">
-        <v>10.89108910891081</v>
+        <v>22.22222222222173</v>
       </c>
       <c r="L270" t="n">
         <v>6.415000000000009</v>
@@ -14369,7 +14391,7 @@
         <v>9.450000000000028</v>
       </c>
       <c r="K271" t="n">
-        <v>1.81818181818176</v>
+        <v>0</v>
       </c>
       <c r="L271" t="n">
         <v>6.414000000000009</v>
@@ -14420,7 +14442,7 @@
         <v>9.560000000000027</v>
       </c>
       <c r="K272" t="n">
-        <v>10.74380165289245</v>
+        <v>18.51851851851824</v>
       </c>
       <c r="L272" t="n">
         <v>6.425000000000009</v>
@@ -14471,7 +14493,7 @@
         <v>9.650000000000027</v>
       </c>
       <c r="K273" t="n">
-        <v>-0.7999999999999761</v>
+        <v>1.587301587301538</v>
       </c>
       <c r="L273" t="n">
         <v>6.426000000000007</v>
@@ -14522,7 +14544,7 @@
         <v>9.720000000000027</v>
       </c>
       <c r="K274" t="n">
-        <v>8.661417322834602</v>
+        <v>13.04347826086958</v>
       </c>
       <c r="L274" t="n">
         <v>6.434000000000007</v>
@@ -14573,7 +14595,7 @@
         <v>9.750000000000027</v>
       </c>
       <c r="K275" t="n">
-        <v>10.76923076923067</v>
+        <v>0</v>
       </c>
       <c r="L275" t="n">
         <v>6.446000000000008</v>
@@ -14624,7 +14646,7 @@
         <v>9.760000000000026</v>
       </c>
       <c r="K276" t="n">
-        <v>10.76923076923067</v>
+        <v>26.53061224489783</v>
       </c>
       <c r="L276" t="n">
         <v>6.447000000000007</v>
@@ -14675,7 +14697,7 @@
         <v>9.790000000000028</v>
       </c>
       <c r="K277" t="n">
-        <v>3.333333333333309</v>
+        <v>30.76923076923061</v>
       </c>
       <c r="L277" t="n">
         <v>6.463000000000006</v>
@@ -14726,7 +14748,7 @@
         <v>9.850000000000026</v>
       </c>
       <c r="K278" t="n">
-        <v>-15.31531531531519</v>
+        <v>15.78947368421049</v>
       </c>
       <c r="L278" t="n">
         <v>6.473000000000006</v>
@@ -14777,7 +14799,7 @@
         <v>9.900000000000027</v>
       </c>
       <c r="K279" t="n">
-        <v>8.333333333333272</v>
+        <v>11.11111111111102</v>
       </c>
       <c r="L279" t="n">
         <v>6.487000000000006</v>
@@ -14828,7 +14850,7 @@
         <v>9.940000000000026</v>
       </c>
       <c r="K280" t="n">
-        <v>10.63829787234029</v>
+        <v>22.44897959183687</v>
       </c>
       <c r="L280" t="n">
         <v>6.489000000000006</v>
@@ -14879,7 +14901,7 @@
         <v>9.940000000000026</v>
       </c>
       <c r="K281" t="n">
-        <v>10.63829787234029</v>
+        <v>0</v>
       </c>
       <c r="L281" t="n">
         <v>6.500000000000005</v>
@@ -14930,7 +14952,7 @@
         <v>9.980000000000025</v>
       </c>
       <c r="K282" t="n">
-        <v>15.46391752577314</v>
+        <v>39.39393939393956</v>
       </c>
       <c r="L282" t="n">
         <v>6.504000000000007</v>
@@ -14981,7 +15003,7 @@
         <v>10.02000000000002</v>
       </c>
       <c r="K283" t="n">
-        <v>9.999999999999929</v>
+        <v>6.666666666666588</v>
       </c>
       <c r="L283" t="n">
         <v>6.513000000000007</v>
@@ -15032,7 +15054,7 @@
         <v>10.02000000000002</v>
       </c>
       <c r="K284" t="n">
-        <v>9.999999999999929</v>
+        <v>-3.703703703703655</v>
       </c>
       <c r="L284" t="n">
         <v>6.515000000000006</v>
@@ -15083,7 +15105,7 @@
         <v>10.02000000000002</v>
       </c>
       <c r="K285" t="n">
-        <v>11.11111111111112</v>
+        <v>-7.692307692307587</v>
       </c>
       <c r="L285" t="n">
         <v>6.514000000000006</v>
@@ -15134,7 +15156,7 @@
         <v>10.04000000000002</v>
       </c>
       <c r="K286" t="n">
-        <v>-3.370786516853858</v>
+        <v>-28.00000000000016</v>
       </c>
       <c r="L286" t="n">
         <v>6.510000000000007</v>
@@ -15185,7 +15207,7 @@
         <v>10.06000000000002</v>
       </c>
       <c r="K287" t="n">
-        <v>8.860759493670932</v>
+        <v>-14.28571428571459</v>
       </c>
       <c r="L287" t="n">
         <v>6.501000000000007</v>
@@ -15236,7 +15258,7 @@
         <v>10.06000000000002</v>
       </c>
       <c r="K288" t="n">
-        <v>8.860759493670932</v>
+        <v>-50.00000000000111</v>
       </c>
       <c r="L288" t="n">
         <v>6.498000000000006</v>
@@ -15287,7 +15309,7 @@
         <v>10.12000000000002</v>
       </c>
       <c r="K289" t="n">
-        <v>0</v>
+        <v>-55.55555555555654</v>
       </c>
       <c r="L289" t="n">
         <v>6.484000000000006</v>
@@ -15338,7 +15360,7 @@
         <v>10.15000000000002</v>
       </c>
       <c r="K290" t="n">
-        <v>-13.92405063291148</v>
+        <v>-61.90476190476265</v>
       </c>
       <c r="L290" t="n">
         <v>6.471000000000006</v>
@@ -15389,7 +15411,7 @@
         <v>10.15000000000002</v>
       </c>
       <c r="K291" t="n">
-        <v>-2.857142857142814</v>
+        <v>-100.000000000001</v>
       </c>
       <c r="L291" t="n">
         <v>6.458000000000007</v>
@@ -15440,7 +15462,7 @@
         <v>10.15000000000002</v>
       </c>
       <c r="K292" t="n">
-        <v>-22.03389830508486</v>
+        <v>-100.0000000000007</v>
       </c>
       <c r="L292" t="n">
         <v>6.441000000000007</v>
@@ -15491,7 +15513,7 @@
         <v>10.19000000000002</v>
       </c>
       <c r="K293" t="n">
-        <v>0</v>
+        <v>-52.94117647058872</v>
       </c>
       <c r="L293" t="n">
         <v>6.432000000000007</v>
@@ -15542,7 +15564,7 @@
         <v>10.23000000000002</v>
       </c>
       <c r="K294" t="n">
-        <v>-21.56862745098069</v>
+        <v>-61.90476190476265</v>
       </c>
       <c r="L294" t="n">
         <v>6.419000000000007</v>
@@ -15593,7 +15615,7 @@
         <v>10.32000000000002</v>
       </c>
       <c r="K295" t="n">
-        <v>-8.77192982456145</v>
+        <v>-7.14285714285737</v>
       </c>
       <c r="L295" t="n">
         <v>6.415000000000006</v>
@@ -15644,7 +15666,7 @@
         <v>10.40000000000002</v>
       </c>
       <c r="K296" t="n">
-        <v>-21.87500000000011</v>
+        <v>-23.52941176470603</v>
       </c>
       <c r="L296" t="n">
         <v>6.405000000000006</v>
@@ -15695,7 +15717,7 @@
         <v>10.40000000000002</v>
       </c>
       <c r="K297" t="n">
-        <v>-27.86885245901665</v>
+        <v>-23.52941176470603</v>
       </c>
       <c r="L297" t="n">
         <v>6.397000000000005</v>
@@ -15746,7 +15768,7 @@
         <v>10.44000000000002</v>
       </c>
       <c r="K298" t="n">
-        <v>-25.42372881355954</v>
+        <v>-18.75000000000014</v>
       </c>
       <c r="L298" t="n">
         <v>6.385000000000004</v>
@@ -15797,7 +15819,7 @@
         <v>10.44000000000002</v>
       </c>
       <c r="K299" t="n">
-        <v>-37.03703703703737</v>
+        <v>-10.34482758620701</v>
       </c>
       <c r="L299" t="n">
         <v>6.379000000000004</v>
@@ -15848,7 +15870,7 @@
         <v>10.52000000000002</v>
       </c>
       <c r="K300" t="n">
-        <v>-41.37931034482787</v>
+        <v>-29.72972972972988</v>
       </c>
       <c r="L300" t="n">
         <v>6.368000000000004</v>
@@ -15899,7 +15921,7 @@
         <v>10.54000000000002</v>
       </c>
       <c r="K301" t="n">
-        <v>-36.66666666666675</v>
+        <v>-23.07692307692301</v>
       </c>
       <c r="L301" t="n">
         <v>6.359000000000004</v>
@@ -15950,7 +15972,7 @@
         <v>10.56000000000002</v>
       </c>
       <c r="K302" t="n">
-        <v>-41.37931034482774</v>
+        <v>-29.72972972972974</v>
       </c>
       <c r="L302" t="n">
         <v>6.352000000000005</v>
@@ -16005,7 +16027,7 @@
         <v>10.68000000000002</v>
       </c>
       <c r="K303" t="n">
-        <v>-12.12121212121213</v>
+        <v>11.111111111111</v>
       </c>
       <c r="L303" t="n">
         <v>6.353000000000004</v>
@@ -16064,7 +16086,7 @@
         <v>10.79000000000002</v>
       </c>
       <c r="K304" t="n">
-        <v>-24.67532467532474</v>
+        <v>-31.91489361702119</v>
       </c>
       <c r="L304" t="n">
         <v>6.347000000000005</v>
@@ -16123,7 +16145,7 @@
         <v>10.79000000000002</v>
       </c>
       <c r="K305" t="n">
-        <v>-24.67532467532474</v>
+        <v>-17.94871794871791</v>
       </c>
       <c r="L305" t="n">
         <v>6.332000000000004</v>
@@ -16180,7 +16202,7 @@
         <v>10.90000000000002</v>
       </c>
       <c r="K306" t="n">
-        <v>-6.976744186046574</v>
+        <v>7.99999999999998</v>
       </c>
       <c r="L306" t="n">
         <v>6.336000000000004</v>
@@ -16239,7 +16261,7 @@
         <v>10.90000000000002</v>
       </c>
       <c r="K307" t="n">
-        <v>-4.761904761904767</v>
+        <v>17.39130434782607</v>
       </c>
       <c r="L307" t="n">
         <v>6.340000000000003</v>
@@ -16296,7 +16318,7 @@
         <v>10.90000000000002</v>
       </c>
       <c r="K308" t="n">
-        <v>-4.761904761904767</v>
+        <v>17.39130434782607</v>
       </c>
       <c r="L308" t="n">
         <v>6.348000000000002</v>
@@ -16353,7 +16375,7 @@
         <v>10.93000000000002</v>
       </c>
       <c r="K309" t="n">
-        <v>6.1728395061728</v>
+        <v>46.34146341463403</v>
       </c>
       <c r="L309" t="n">
         <v>6.359000000000002</v>
@@ -16410,7 +16432,7 @@
         <v>10.93000000000002</v>
       </c>
       <c r="K310" t="n">
-        <v>10.25641025641025</v>
+        <v>43.58974358974351</v>
       </c>
       <c r="L310" t="n">
         <v>6.378000000000002</v>
@@ -16467,7 +16489,7 @@
         <v>11.05000000000003</v>
       </c>
       <c r="K311" t="n">
-        <v>-4.444444444444438</v>
+        <v>6.122448979591863</v>
       </c>
       <c r="L311" t="n">
         <v>6.383000000000003</v>
@@ -16524,7 +16546,7 @@
         <v>11.14000000000003</v>
       </c>
       <c r="K312" t="n">
-        <v>5.050505050505023</v>
+        <v>0</v>
       </c>
       <c r="L312" t="n">
         <v>6.395000000000003</v>
@@ -16575,7 +16597,7 @@
         <v>11.14000000000003</v>
       </c>
       <c r="K313" t="n">
-        <v>1.052631578947343</v>
+        <v>31.4285714285714</v>
       </c>
       <c r="L313" t="n">
         <v>6.395000000000003</v>
@@ -16626,7 +16648,7 @@
         <v>11.54000000000003</v>
       </c>
       <c r="K314" t="n">
-        <v>34.35114503816784</v>
+        <v>67.99999999999993</v>
       </c>
       <c r="L314" t="n">
         <v>6.446000000000003</v>
@@ -16677,7 +16699,7 @@
         <v>11.55000000000003</v>
       </c>
       <c r="K315" t="n">
-        <v>28.45528455284541</v>
+        <v>59.99999999999975</v>
       </c>
       <c r="L315" t="n">
         <v>6.496000000000004</v>
@@ -16728,7 +16750,7 @@
         <v>11.83000000000002</v>
       </c>
       <c r="K316" t="n">
-        <v>10.48951048951049</v>
+        <v>11.82795698924733</v>
       </c>
       <c r="L316" t="n">
         <v>6.507000000000003</v>
@@ -16779,7 +16801,7 @@
         <v>11.83000000000002</v>
       </c>
       <c r="K317" t="n">
-        <v>10.48951048951049</v>
+        <v>11.82795698924733</v>
       </c>
       <c r="L317" t="n">
         <v>6.518000000000003</v>
@@ -16830,7 +16852,7 @@
         <v>12.04000000000002</v>
       </c>
       <c r="K318" t="n">
-        <v>25</v>
+        <v>26.12612612612614</v>
       </c>
       <c r="L318" t="n">
         <v>6.550000000000002</v>
@@ -16881,7 +16903,7 @@
         <v>12.21000000000002</v>
       </c>
       <c r="K319" t="n">
-        <v>12.99435028248589</v>
+        <v>9.375000000000012</v>
       </c>
       <c r="L319" t="n">
         <v>6.562000000000002</v>
@@ -16932,7 +16954,7 @@
         <v>12.21000000000002</v>
       </c>
       <c r="K320" t="n">
-        <v>18.3431952662722</v>
+        <v>20.68965517241384</v>
       </c>
       <c r="L320" t="n">
         <v>6.574000000000003</v>
@@ -16983,7 +17005,7 @@
         <v>12.24000000000002</v>
       </c>
       <c r="K321" t="n">
-        <v>18.82352941176468</v>
+        <v>16.36363636363637</v>
       </c>
       <c r="L321" t="n">
         <v>6.601000000000002</v>
@@ -17034,7 +17056,7 @@
         <v>12.28000000000002</v>
       </c>
       <c r="K322" t="n">
-        <v>15.11627906976744</v>
+        <v>12.28070175438597</v>
       </c>
       <c r="L322" t="n">
         <v>6.615000000000002</v>
@@ -17085,7 +17107,7 @@
         <v>12.46000000000002</v>
       </c>
       <c r="K323" t="n">
-        <v>17.97752808988768</v>
+        <v>-8.695652173913086</v>
       </c>
       <c r="L323" t="n">
         <v>6.647000000000001</v>
@@ -17136,7 +17158,7 @@
         <v>12.51000000000002</v>
       </c>
       <c r="K324" t="n">
-        <v>22.09302325581401</v>
+        <v>-12.49999999999995</v>
       </c>
       <c r="L324" t="n">
         <v>6.634</v>
@@ -17187,7 +17209,7 @@
         <v>12.52000000000002</v>
       </c>
       <c r="K325" t="n">
-        <v>21.38728323699422</v>
+        <v>21.73913043478255</v>
       </c>
       <c r="L325" t="n">
         <v>6.621</v>
@@ -17238,7 +17260,7 @@
         <v>12.52000000000002</v>
       </c>
       <c r="K326" t="n">
-        <v>16.04938271604936</v>
+        <v>21.73913043478255</v>
       </c>
       <c r="L326" t="n">
         <v>6.636000000000001</v>
@@ -17289,7 +17311,7 @@
         <v>12.61000000000002</v>
       </c>
       <c r="K327" t="n">
-        <v>20.46783625730991</v>
+        <v>5.263157894736727</v>
       </c>
       <c r="L327" t="n">
         <v>6.660000000000001</v>
@@ -17340,7 +17362,7 @@
         <v>12.64000000000002</v>
       </c>
       <c r="K328" t="n">
-        <v>18.39080459770116</v>
+        <v>39.53488372093024</v>
       </c>
       <c r="L328" t="n">
         <v>6.660000000000001</v>
@@ -17391,7 +17413,7 @@
         <v>12.76000000000002</v>
       </c>
       <c r="K329" t="n">
-        <v>9.289617486338802</v>
+        <v>9.090909090909076</v>
       </c>
       <c r="L329" t="n">
         <v>6.665000000000001</v>
@@ -17442,7 +17464,7 @@
         <v>12.80000000000002</v>
       </c>
       <c r="K330" t="n">
-        <v>6.951871657754014</v>
+        <v>-3.571428571428503</v>
       </c>
       <c r="L330" t="n">
         <v>6.665999999999999</v>
@@ -17493,7 +17515,7 @@
         <v>12.97000000000002</v>
       </c>
       <c r="K331" t="n">
-        <v>21.87500000000004</v>
+        <v>27.53623188405805</v>
       </c>
       <c r="L331" t="n">
         <v>6.681</v>
@@ -17544,7 +17566,7 @@
         <v>12.98000000000002</v>
       </c>
       <c r="K332" t="n">
-        <v>17.39130434782614</v>
+        <v>0</v>
       </c>
       <c r="L332" t="n">
         <v>6.699</v>
@@ -17595,7 +17617,7 @@
         <v>12.98000000000002</v>
       </c>
       <c r="K333" t="n">
-        <v>17.39130434782614</v>
+        <v>10.63829787234041</v>
       </c>
       <c r="L333" t="n">
         <v>6.699</v>
@@ -17646,7 +17668,7 @@
         <v>13.00000000000002</v>
       </c>
       <c r="K334" t="n">
-        <v>-6.849315068493208</v>
+        <v>8.333333333333396</v>
       </c>
       <c r="L334" t="n">
         <v>6.702</v>
@@ -17697,7 +17719,7 @@
         <v>13.04000000000002</v>
       </c>
       <c r="K335" t="n">
-        <v>-8.724832214765124</v>
+        <v>0</v>
       </c>
       <c r="L335" t="n">
         <v>6.701999999999998</v>
@@ -17748,7 +17770,7 @@
         <v>13.09000000000002</v>
       </c>
       <c r="K336" t="n">
-        <v>15.87301587301593</v>
+        <v>-8.33333333333321</v>
       </c>
       <c r="L336" t="n">
         <v>6.706999999999999</v>
@@ -17799,7 +17821,7 @@
         <v>13.09000000000002</v>
       </c>
       <c r="K337" t="n">
-        <v>15.87301587301593</v>
+        <v>-2.222222222222187</v>
       </c>
       <c r="L337" t="n">
         <v>6.703</v>
@@ -17850,7 +17872,7 @@
         <v>13.10000000000002</v>
       </c>
       <c r="K338" t="n">
-        <v>-1.886792452830234</v>
+        <v>29.41176470588226</v>
       </c>
       <c r="L338" t="n">
         <v>6.701000000000001</v>
@@ -17901,7 +17923,7 @@
         <v>13.11000000000002</v>
       </c>
       <c r="K339" t="n">
-        <v>15.55555555555554</v>
+        <v>41.93548387096764</v>
       </c>
       <c r="L339" t="n">
         <v>6.709999999999999</v>
@@ -17952,7 +17974,7 @@
         <v>13.12000000000002</v>
       </c>
       <c r="K340" t="n">
-        <v>14.2857142857143</v>
+        <v>-33.33333333333314</v>
       </c>
       <c r="L340" t="n">
         <v>6.722</v>
@@ -18003,7 +18025,7 @@
         <v>13.12000000000002</v>
       </c>
       <c r="K341" t="n">
-        <v>11.36363636363644</v>
+        <v>-28.57142857142848</v>
       </c>
       <c r="L341" t="n">
         <v>6.717000000000001</v>
@@ -18054,7 +18076,7 @@
         <v>13.12000000000002</v>
       </c>
       <c r="K342" t="n">
-        <v>16.66666666666674</v>
+        <v>-28.57142857142848</v>
       </c>
       <c r="L342" t="n">
         <v>6.713000000000001</v>
@@ -18105,7 +18127,7 @@
         <v>13.25000000000002</v>
       </c>
       <c r="K343" t="n">
-        <v>-21.51898734177217</v>
+        <v>-59.99999999999979</v>
       </c>
       <c r="L343" t="n">
         <v>6.696000000000002</v>
@@ -18156,7 +18178,7 @@
         <v>13.26000000000002</v>
       </c>
       <c r="K344" t="n">
-        <v>-14.66666666666674</v>
+        <v>-45.45454545454516</v>
       </c>
       <c r="L344" t="n">
         <v>6.682000000000002</v>
@@ -18207,7 +18229,7 @@
         <v>13.34000000000002</v>
       </c>
       <c r="K345" t="n">
-        <v>-2.43902439024386</v>
+        <v>-28.00000000000011</v>
       </c>
       <c r="L345" t="n">
         <v>6.680000000000001</v>
@@ -18258,7 +18280,7 @@
         <v>13.44000000000002</v>
       </c>
       <c r="K346" t="n">
-        <v>-13.0434782608696</v>
+        <v>-48.57142857142861</v>
       </c>
       <c r="L346" t="n">
         <v>6.663000000000001</v>
@@ -18309,7 +18331,7 @@
         <v>13.46000000000002</v>
       </c>
       <c r="K347" t="n">
-        <v>-27.05882352941178</v>
+        <v>-50</v>
       </c>
       <c r="L347" t="n">
         <v>6.644000000000001</v>
@@ -18360,7 +18382,7 @@
         <v>13.51000000000002</v>
       </c>
       <c r="K348" t="n">
-        <v>-17.24137931034488</v>
+        <v>-30</v>
       </c>
       <c r="L348" t="n">
         <v>6.631000000000002</v>
@@ -18411,7 +18433,7 @@
         <v>13.52000000000002</v>
       </c>
       <c r="K349" t="n">
-        <v>-2.631578947368483</v>
+        <v>-25.00000000000011</v>
       </c>
       <c r="L349" t="n">
         <v>6.620000000000002</v>
@@ -18462,7 +18484,7 @@
         <v>13.59000000000002</v>
       </c>
       <c r="K350" t="n">
-        <v>11.39240506329111</v>
+        <v>-6.3829787234043</v>
       </c>
       <c r="L350" t="n">
         <v>6.617000000000002</v>
@@ -18513,7 +18535,7 @@
         <v>13.66000000000002</v>
       </c>
       <c r="K351" t="n">
-        <v>-21.73913043478262</v>
+        <v>-18.51851851851859</v>
       </c>
       <c r="L351" t="n">
         <v>6.607000000000001</v>
@@ -18564,7 +18586,7 @@
         <v>13.73000000000002</v>
       </c>
       <c r="K352" t="n">
-        <v>-9.33333333333335</v>
+        <v>20.83333333333317</v>
       </c>
       <c r="L352" t="n">
         <v>6.604000000000001</v>
@@ -18615,7 +18637,7 @@
         <v>13.87000000000002</v>
       </c>
       <c r="K353" t="n">
-        <v>-23.59550561797751</v>
+        <v>-8.196721311475365</v>
       </c>
       <c r="L353" t="n">
         <v>6.6</v>
@@ -18666,7 +18688,7 @@
         <v>14.01000000000002</v>
       </c>
       <c r="K354" t="n">
-        <v>-4.950495049504925</v>
+        <v>1.4925373134328</v>
       </c>
       <c r="L354" t="n">
         <v>6.609</v>
@@ -18717,7 +18739,7 @@
         <v>14.01000000000002</v>
       </c>
       <c r="K355" t="n">
-        <v>-1.030927835051522</v>
+        <v>19.29824561403514</v>
       </c>
       <c r="L355" t="n">
         <v>6.610000000000001</v>
@@ -18768,7 +18790,7 @@
         <v>14.02000000000002</v>
       </c>
       <c r="K356" t="n">
-        <v>-7.526881720430126</v>
+        <v>21.42857142857143</v>
       </c>
       <c r="L356" t="n">
         <v>6.62</v>
@@ -18819,7 +18841,7 @@
         <v>14.42000000000002</v>
       </c>
       <c r="K357" t="n">
-        <v>-35.33834586466165</v>
+        <v>-36.26373626373627</v>
       </c>
       <c r="L357" t="n">
         <v>6.592000000000001</v>
@@ -18870,7 +18892,7 @@
         <v>14.79000000000002</v>
       </c>
       <c r="K358" t="n">
-        <v>-5.325443786982236</v>
+        <v>2.362204724409466</v>
       </c>
       <c r="L358" t="n">
         <v>6.595999999999999</v>
@@ -18921,7 +18943,7 @@
         <v>14.81000000000002</v>
       </c>
       <c r="K359" t="n">
-        <v>-5.882352941176446</v>
+        <v>-4.918032786885211</v>
       </c>
       <c r="L359" t="n">
         <v>6.597</v>
@@ -18972,7 +18994,7 @@
         <v>15.06000000000002</v>
       </c>
       <c r="K360" t="n">
-        <v>-17.52577319587627</v>
+        <v>-17.14285714285709</v>
       </c>
       <c r="L360" t="n">
         <v>6.566</v>
@@ -19023,7 +19045,7 @@
         <v>15.31000000000002</v>
       </c>
       <c r="K361" t="n">
-        <v>-4.109589041095882</v>
+        <v>-3.797468354430355</v>
       </c>
       <c r="L361" t="n">
         <v>6.567</v>
@@ -19074,7 +19096,7 @@
         <v>15.34000000000002</v>
       </c>
       <c r="K362" t="n">
-        <v>-5.405405405405404</v>
+        <v>3.40136054421767</v>
       </c>
       <c r="L362" t="n">
         <v>6.558</v>
@@ -19125,7 +19147,7 @@
         <v>15.35000000000002</v>
       </c>
       <c r="K363" t="n">
-        <v>0.9523809523809306</v>
+        <v>-5.970149253731341</v>
       </c>
       <c r="L363" t="n">
         <v>6.564</v>
@@ -19176,7 +19198,7 @@
         <v>15.48000000000003</v>
       </c>
       <c r="K364" t="n">
-        <v>-5.4054054054054</v>
+        <v>-14.28571428571426</v>
       </c>
       <c r="L364" t="n">
         <v>6.542999999999999</v>
@@ -19227,7 +19249,7 @@
         <v>15.62000000000003</v>
       </c>
       <c r="K365" t="n">
-        <v>-2.631578947368438</v>
+        <v>-3.750000000000024</v>
       </c>
       <c r="L365" t="n">
         <v>6.535999999999999</v>
@@ -19278,7 +19300,7 @@
         <v>15.79000000000003</v>
       </c>
       <c r="K366" t="n">
-        <v>-5.531914893617009</v>
+        <v>12.40875912408756</v>
       </c>
       <c r="L366" t="n">
         <v>6.513</v>
@@ -19329,7 +19351,7 @@
         <v>15.94000000000003</v>
       </c>
       <c r="K367" t="n">
-        <v>1.612903225806451</v>
+        <v>-4.347826086956498</v>
       </c>
       <c r="L367" t="n">
         <v>6.544999999999999</v>
@@ -19380,7 +19402,7 @@
         <v>16.06000000000003</v>
       </c>
       <c r="K368" t="n">
-        <v>-5.098039215686262</v>
+        <v>-11.99999999999999</v>
       </c>
       <c r="L368" t="n">
         <v>6.527999999999999</v>
@@ -19431,7 +19453,7 @@
         <v>16.12000000000003</v>
       </c>
       <c r="K369" t="n">
-        <v>-7.692307692307655</v>
+        <v>3.773584905660373</v>
       </c>
       <c r="L369" t="n">
         <v>6.507</v>
@@ -19482,7 +19504,7 @@
         <v>16.15000000000003</v>
       </c>
       <c r="K370" t="n">
-        <v>-11.71874999999998</v>
+        <v>-28.57142857142848</v>
       </c>
       <c r="L370" t="n">
         <v>6.508</v>
@@ -19533,7 +19555,7 @@
         <v>16.30000000000003</v>
       </c>
       <c r="K371" t="n">
-        <v>-3.03030303030303</v>
+        <v>-6.250000000000046</v>
       </c>
       <c r="L371" t="n">
         <v>6.499</v>
@@ -19584,7 +19606,7 @@
         <v>16.48000000000003</v>
       </c>
       <c r="K372" t="n">
-        <v>1.090909090909099</v>
+        <v>9.734513274336305</v>
       </c>
       <c r="L372" t="n">
         <v>6.511</v>
@@ -19635,7 +19657,7 @@
         <v>16.71000000000003</v>
       </c>
       <c r="K373" t="n">
-        <v>-2.112676056338043</v>
+        <v>0.8130081300812833</v>
       </c>
       <c r="L373" t="n">
         <v>6.499</v>
@@ -19686,7 +19708,7 @@
         <v>16.71000000000003</v>
       </c>
       <c r="K374" t="n">
-        <v>-7.407407407407406</v>
+        <v>-11.92660550458715</v>
       </c>
       <c r="L374" t="n">
         <v>6.5</v>
@@ -19737,7 +19759,7 @@
         <v>16.87000000000003</v>
       </c>
       <c r="K375" t="n">
-        <v>-1.398601398601398</v>
+        <v>18.51851851851853</v>
       </c>
       <c r="L375" t="n">
         <v>6.503</v>
@@ -19788,7 +19810,7 @@
         <v>16.87000000000003</v>
       </c>
       <c r="K376" t="n">
-        <v>-1.052631578947376</v>
+        <v>5.376344086021488</v>
       </c>
       <c r="L376" t="n">
         <v>6.522999999999999</v>
@@ -19839,7 +19861,7 @@
         <v>16.92000000000003</v>
       </c>
       <c r="K377" t="n">
-        <v>12.79999999999999</v>
+        <v>13.95348837209304</v>
       </c>
       <c r="L377" t="n">
         <v>6.522999999999999</v>
@@ -19890,7 +19912,7 @@
         <v>16.95000000000003</v>
       </c>
       <c r="K378" t="n">
-        <v>-0.9259259259259045</v>
+        <v>25.30120481927705</v>
       </c>
       <c r="L378" t="n">
         <v>6.537999999999999</v>
@@ -19941,7 +19963,7 @@
         <v>17.00000000000003</v>
       </c>
       <c r="K379" t="n">
-        <v>-2.283105022831077</v>
+        <v>22.35294117647049</v>
       </c>
       <c r="L379" t="n">
         <v>6.553999999999999</v>
@@ -19992,7 +20014,7 @@
         <v>17.05000000000003</v>
       </c>
       <c r="K380" t="n">
-        <v>12.56281407035172</v>
+        <v>12.00000000000004</v>
       </c>
       <c r="L380" t="n">
         <v>6.577999999999999</v>
@@ -20043,7 +20065,7 @@
         <v>17.05000000000003</v>
       </c>
       <c r="K381" t="n">
-        <v>0</v>
+        <v>-15.78947368421039</v>
       </c>
       <c r="L381" t="n">
         <v>6.586999999999999</v>
@@ -20094,7 +20116,7 @@
         <v>17.05000000000003</v>
       </c>
       <c r="K382" t="n">
-        <v>1.754385964912291</v>
+        <v>41.17647058823505</v>
       </c>
       <c r="L382" t="n">
         <v>6.577999999999999</v>
@@ -20145,7 +20167,7 @@
         <v>17.07000000000003</v>
       </c>
       <c r="K383" t="n">
-        <v>0</v>
+        <v>33.33333333333309</v>
       </c>
       <c r="L383" t="n">
         <v>6.589999999999999</v>
@@ -20196,7 +20218,7 @@
         <v>17.14000000000003</v>
       </c>
       <c r="K384" t="n">
-        <v>3.61445783132527</v>
+        <v>-40.74074074074039</v>
       </c>
       <c r="L384" t="n">
         <v>6.594999999999999</v>
@@ -20247,7 +20269,7 @@
         <v>17.19000000000003</v>
       </c>
       <c r="K385" t="n">
-        <v>-8.280254777070036</v>
+        <v>-49.99999999999945</v>
       </c>
       <c r="L385" t="n">
         <v>6.578999999999999</v>
@@ -20298,7 +20320,7 @@
         <v>17.20000000000003</v>
       </c>
       <c r="K386" t="n">
-        <v>2.127659574468094</v>
+        <v>-42.85714285714218</v>
       </c>
       <c r="L386" t="n">
         <v>6.561999999999999</v>
@@ -20349,7 +20371,7 @@
         <v>17.20000000000003</v>
       </c>
       <c r="K387" t="n">
-        <v>-9.523809523809494</v>
+        <v>-59.99999999999929</v>
       </c>
       <c r="L387" t="n">
         <v>6.549999999999999</v>
@@ -20400,7 +20422,7 @@
         <v>17.33000000000003</v>
       </c>
       <c r="K388" t="n">
-        <v>10.23622047244091</v>
+        <v>9.090909090909115</v>
       </c>
       <c r="L388" t="n">
         <v>6.547999999999999</v>
@@ -20451,7 +20473,7 @@
         <v>17.46000000000003</v>
       </c>
       <c r="K389" t="n">
-        <v>4.477611940298467</v>
+        <v>-36.58536585365861</v>
       </c>
       <c r="L389" t="n">
         <v>6.537999999999998</v>
@@ -20502,7 +20524,7 @@
         <v>17.54000000000003</v>
       </c>
       <c r="K390" t="n">
-        <v>0.719424460431639</v>
+        <v>-46.93877551020432</v>
       </c>
       <c r="L390" t="n">
         <v>6.514999999999998</v>
@@ -20553,7 +20575,7 @@
         <v>17.73000000000003</v>
       </c>
       <c r="K391" t="n">
-        <v>3.496503496503538</v>
+        <v>-5.882352941176478</v>
       </c>
       <c r="L391" t="n">
         <v>6.510999999999997</v>
@@ -20604,7 +20626,7 @@
         <v>17.88000000000003</v>
       </c>
       <c r="K392" t="n">
-        <v>-19.99999999999994</v>
+        <v>-20.98765432098759</v>
       </c>
       <c r="L392" t="n">
         <v>6.491999999999997</v>
@@ -20655,7 +20677,7 @@
         <v>17.98000000000003</v>
       </c>
       <c r="K393" t="n">
-        <v>3.937007874015714</v>
+        <v>0</v>
       </c>
       <c r="L393" t="n">
         <v>6.484999999999997</v>
@@ -20706,7 +20728,7 @@
         <v>18.10000000000003</v>
       </c>
       <c r="K394" t="n">
-        <v>-5.035971223021525</v>
+        <v>-7.692307692307625</v>
       </c>
       <c r="L394" t="n">
         <v>6.472999999999997</v>
@@ -20757,7 +20779,7 @@
         <v>18.21000000000003</v>
       </c>
       <c r="K395" t="n">
-        <v>-8.955223880597</v>
+        <v>4.950495049504942</v>
       </c>
       <c r="L395" t="n">
         <v>6.476999999999999</v>
@@ -20808,7 +20830,7 @@
         <v>18.21000000000003</v>
       </c>
       <c r="K396" t="n">
-        <v>-8.955223880597</v>
+        <v>4.950495049504942</v>
       </c>
       <c r="L396" t="n">
         <v>6.481999999999999</v>
@@ -20859,7 +20881,7 @@
         <v>18.25000000000003</v>
       </c>
       <c r="K397" t="n">
-        <v>-8.270676691729335</v>
+        <v>-13.0434782608696</v>
       </c>
       <c r="L397" t="n">
         <v>6.483</v>
@@ -20910,7 +20932,7 @@
         <v>18.31000000000003</v>
       </c>
       <c r="K398" t="n">
-        <v>-14.7058823529412</v>
+        <v>-5.882352941176464</v>
       </c>
       <c r="L398" t="n">
         <v>6.464999999999999</v>
@@ -20961,7 +20983,7 @@
         <v>18.33000000000003</v>
       </c>
       <c r="K399" t="n">
-        <v>-9.774436090225569</v>
+        <v>6.329113924050617</v>
       </c>
       <c r="L399" t="n">
         <v>6.461999999999999</v>
@@ -21012,7 +21034,7 @@
         <v>18.37000000000003</v>
       </c>
       <c r="K400" t="n">
-        <v>-10.60606060606068</v>
+        <v>-15.62500000000016</v>
       </c>
       <c r="L400" t="n">
         <v>6.470999999999999</v>
@@ -21063,7 +21085,7 @@
         <v>18.41000000000003</v>
       </c>
       <c r="K401" t="n">
-        <v>-13.23529411764714</v>
+        <v>1.88679245283017</v>
       </c>
       <c r="L401" t="n">
         <v>6.456999999999999</v>
@@ -21114,7 +21136,7 @@
         <v>18.45000000000002</v>
       </c>
       <c r="K402" t="n">
-        <v>-10.00000000000007</v>
+        <v>-10.63829787234057</v>
       </c>
       <c r="L402" t="n">
         <v>6.461999999999999</v>
@@ -21165,7 +21187,7 @@
         <v>18.45000000000002</v>
       </c>
       <c r="K403" t="n">
-        <v>-8.695652173913079</v>
+        <v>20.00000000000015</v>
       </c>
       <c r="L403" t="n">
         <v>6.456999999999999</v>
@@ -21216,7 +21238,7 @@
         <v>18.47000000000002</v>
       </c>
       <c r="K404" t="n">
-        <v>-5.263157894736818</v>
+        <v>-23.07692307692342</v>
       </c>
       <c r="L404" t="n">
         <v>6.461999999999999</v>
@@ -21267,7 +21289,7 @@
         <v>18.49000000000002</v>
       </c>
       <c r="K405" t="n">
-        <v>-3.076923076923095</v>
+        <v>-28.57142857142921</v>
       </c>
       <c r="L405" t="n">
         <v>6.453999999999998</v>
@@ -21318,7 +21340,7 @@
         <v>18.49000000000002</v>
       </c>
       <c r="K406" t="n">
-        <v>-2.325581395348871</v>
+        <v>-16.66666666666704</v>
       </c>
       <c r="L406" t="n">
         <v>6.445999999999996</v>
@@ -21369,7 +21391,7 @@
         <v>18.49000000000002</v>
       </c>
       <c r="K407" t="n">
-        <v>-2.325581395348871</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L407" t="n">
         <v>6.441999999999996</v>
@@ -21420,7 +21442,7 @@
         <v>18.58000000000002</v>
       </c>
       <c r="K408" t="n">
-        <v>-5.600000000000054</v>
+        <v>36.00000000000045</v>
       </c>
       <c r="L408" t="n">
         <v>6.452999999999996</v>
@@ -21471,7 +21493,7 @@
         <v>18.59000000000002</v>
       </c>
       <c r="K409" t="n">
-        <v>4.424778761061949</v>
+        <v>18.18181818181829</v>
       </c>
       <c r="L409" t="n">
         <v>6.460999999999996</v>
@@ -21522,7 +21544,7 @@
         <v>18.59000000000002</v>
       </c>
       <c r="K410" t="n">
-        <v>12.3809523809524</v>
+        <v>44.44444444444456</v>
       </c>
       <c r="L410" t="n">
         <v>6.464999999999996</v>
@@ -21573,7 +21595,7 @@
         <v>18.60000000000002</v>
       </c>
       <c r="K411" t="n">
-        <v>-8.045977011494342</v>
+        <v>20.00000000000036</v>
       </c>
       <c r="L411" t="n">
         <v>6.471999999999997</v>
@@ -21624,7 +21646,7 @@
         <v>18.61000000000002</v>
       </c>
       <c r="K412" t="n">
-        <v>9.589041095890584</v>
+        <v>12.50000000000055</v>
       </c>
       <c r="L412" t="n">
         <v>6.473999999999997</v>
@@ -21675,7 +21697,7 @@
         <v>18.62000000000002</v>
       </c>
       <c r="K413" t="n">
-        <v>-6.25</v>
+        <v>20.00000000000083</v>
       </c>
       <c r="L413" t="n">
         <v>6.474999999999997</v>
@@ -21726,7 +21748,7 @@
         <v>18.62000000000002</v>
       </c>
       <c r="K414" t="n">
-        <v>15.38461538461573</v>
+        <v>38.46153846154035</v>
       </c>
       <c r="L414" t="n">
         <v>6.477999999999997</v>
@@ -21777,7 +21799,7 @@
         <v>18.64000000000002</v>
       </c>
       <c r="K415" t="n">
-        <v>-2.325581395348847</v>
+        <v>46.66666666666841</v>
       </c>
       <c r="L415" t="n">
         <v>6.484999999999997</v>
@@ -21828,7 +21850,7 @@
         <v>18.64000000000002</v>
       </c>
       <c r="K416" t="n">
-        <v>-2.325581395348847</v>
+        <v>46.66666666666841</v>
       </c>
       <c r="L416" t="n">
         <v>6.491999999999996</v>
@@ -21879,7 +21901,7 @@
         <v>18.64000000000002</v>
       </c>
       <c r="K417" t="n">
-        <v>7.692307692307955</v>
+        <v>-33.33333333333531</v>
       </c>
       <c r="L417" t="n">
         <v>6.498999999999995</v>
@@ -21930,7 +21952,7 @@
         <v>18.64000000000002</v>
       </c>
       <c r="K418" t="n">
-        <v>27.27272727272796</v>
+        <v>-20.00000000000213</v>
       </c>
       <c r="L418" t="n">
         <v>6.496999999999995</v>
@@ -21981,7 +22003,7 @@
         <v>18.66000000000002</v>
       </c>
       <c r="K419" t="n">
-        <v>15.15151515151577</v>
+        <v>-42.85714285714612</v>
       </c>
       <c r="L419" t="n">
         <v>6.493999999999995</v>
@@ -22032,7 +22054,7 @@
         <v>18.67000000000002</v>
       </c>
       <c r="K420" t="n">
-        <v>0</v>
+        <v>-42.85714285714521</v>
       </c>
       <c r="L420" t="n">
         <v>6.489999999999995</v>
@@ -22083,7 +22105,7 @@
         <v>18.74000000000002</v>
       </c>
       <c r="K421" t="n">
-        <v>-9.090909090909042</v>
+        <v>-69.23076923076965</v>
       </c>
       <c r="L421" t="n">
         <v>6.479999999999995</v>
@@ -22134,7 +22156,7 @@
         <v>18.80000000000002</v>
       </c>
       <c r="K422" t="n">
-        <v>-2.857142857142843</v>
+        <v>-11.11111111111139</v>
       </c>
       <c r="L422" t="n">
         <v>6.476999999999995</v>
@@ -22185,7 +22207,7 @@
         <v>18.81000000000002</v>
       </c>
       <c r="K423" t="n">
-        <v>-5.555555555555555</v>
+        <v>-15.78947368421085</v>
       </c>
       <c r="L423" t="n">
         <v>6.473999999999995</v>
@@ -22236,7 +22258,7 @@
         <v>18.82000000000001</v>
       </c>
       <c r="K424" t="n">
-        <v>-2.857142857142871</v>
+        <v>-33.33333333333383</v>
       </c>
       <c r="L424" t="n">
         <v>6.469999999999994</v>
@@ -22287,7 +22309,7 @@
         <v>18.87000000000002</v>
       </c>
       <c r="K425" t="n">
-        <v>-10.52631578947392</v>
+        <v>-47.82608695652253</v>
       </c>
       <c r="L425" t="n">
         <v>6.458999999999994</v>
@@ -22338,7 +22360,7 @@
         <v>18.92000000000002</v>
       </c>
       <c r="K426" t="n">
-        <v>2.325581395349034</v>
+        <v>-21.42857142857147</v>
       </c>
       <c r="L426" t="n">
         <v>6.452999999999994</v>
@@ -22389,7 +22411,7 @@
         <v>18.92000000000002</v>
       </c>
       <c r="K427" t="n">
-        <v>2.325581395349034</v>
+        <v>-21.42857142857147</v>
       </c>
       <c r="L427" t="n">
         <v>6.446999999999994</v>
@@ -22440,7 +22462,7 @@
         <v>18.92000000000002</v>
       </c>
       <c r="K428" t="n">
-        <v>-23.52941176470614</v>
+        <v>-15.38461538461552</v>
       </c>
       <c r="L428" t="n">
         <v>6.440999999999994</v>
@@ -22491,7 +22513,7 @@
         <v>18.99000000000002</v>
       </c>
       <c r="K429" t="n">
-        <v>-35.00000000000066</v>
+        <v>-31.25000000000021</v>
       </c>
       <c r="L429" t="n">
         <v>6.429999999999994</v>
@@ -22542,7 +22564,7 @@
         <v>19.06000000000002</v>
       </c>
       <c r="K430" t="n">
-        <v>-14.89361702127673</v>
+        <v>12.50000000000014</v>
       </c>
       <c r="L430" t="n">
         <v>6.426999999999994</v>
@@ -22593,7 +22615,7 @@
         <v>19.09000000000002</v>
       </c>
       <c r="K431" t="n">
-        <v>-18.36734693877567</v>
+        <v>-17.24137931034482</v>
       </c>
       <c r="L431" t="n">
         <v>6.427999999999993</v>
@@ -22644,7 +22666,7 @@
         <v>19.14000000000002</v>
       </c>
       <c r="K432" t="n">
-        <v>-24.52830188679254</v>
+        <v>-27.27272727272708</v>
       </c>
       <c r="L432" t="n">
         <v>6.417999999999994</v>
@@ -22695,7 +22717,7 @@
         <v>19.21000000000002</v>
       </c>
       <c r="K433" t="n">
-        <v>-8.474576271186564</v>
+        <v>-2.56410256410271</v>
       </c>
       <c r="L433" t="n">
         <v>6.415999999999992</v>
@@ -22746,7 +22768,7 @@
         <v>19.28000000000002</v>
       </c>
       <c r="K434" t="n">
-        <v>-18.18181818181819</v>
+        <v>-7.317073170731485</v>
       </c>
       <c r="L434" t="n">
         <v>6.407999999999992</v>
@@ -22797,7 +22819,7 @@
         <v>19.35000000000002</v>
       </c>
       <c r="K435" t="n">
-        <v>-9.859154929577493</v>
+        <v>-2.325581395348977</v>
       </c>
       <c r="L435" t="n">
         <v>6.411999999999994</v>
@@ -22848,7 +22870,7 @@
         <v>19.37000000000002</v>
       </c>
       <c r="K436" t="n">
-        <v>-12.32876712328764</v>
+        <v>-6.66666666666668</v>
       </c>
       <c r="L436" t="n">
         <v>6.408999999999994</v>
@@ -22899,7 +22921,7 @@
         <v>19.38000000000002</v>
       </c>
       <c r="K437" t="n">
-        <v>-10.81081081081084</v>
+        <v>-4.347826086956614</v>
       </c>
       <c r="L437" t="n">
         <v>6.406999999999994</v>
@@ -22950,7 +22972,7 @@
         <v>19.40000000000002</v>
       </c>
       <c r="K438" t="n">
-        <v>-13.15789473684209</v>
+        <v>7.317073170731765</v>
       </c>
       <c r="L438" t="n">
         <v>6.402999999999994</v>
@@ -23001,7 +23023,7 @@
         <v>19.44000000000002</v>
       </c>
       <c r="K439" t="n">
-        <v>-5.128205128205149</v>
+        <v>0</v>
       </c>
       <c r="L439" t="n">
         <v>6.409999999999994</v>

--- a/BackTest/2019-10-31 BackTest FZZ.xlsx
+++ b/BackTest/2019-10-31 BackTest FZZ.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-215726.4145</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-215912.4145</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-215912.4145</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-215912.4145</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-355270.1505268217</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-355270.1505268217</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-355270.1505268217</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-355270.1505268217</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-355270.1505268217</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-355270.1505268217</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-355270.1505268217</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-355270.1505268217</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-319309.4031268217</v>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-382238.0789268217</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-382238.0789268217</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-382238.0789268217</v>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-382238.0789268217</v>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-382238.0789268217</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-382238.0789268217</v>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-382238.0789268217</v>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-382238.0789268217</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-384634.7739268217</v>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-384634.7739268217</v>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-478807.9585268217</v>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-478807.9585268217</v>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-568000.7484268217</v>
       </c>
       <c r="H41" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-597633.1618268216</v>
       </c>
       <c r="H42" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1837,14 +1837,10 @@
         <v>-592036.2392268216</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
-      </c>
-      <c r="I44" t="n">
-        <v>6.41</v>
-      </c>
-      <c r="J44" t="n">
-        <v>6.41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
@@ -1877,14 +1873,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>6.41</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1913,17 +1903,11 @@
         <v>-900861.2249268215</v>
       </c>
       <c r="H46" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>6.41</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1952,17 +1936,11 @@
         <v>-898895.6629268215</v>
       </c>
       <c r="H47" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>6.41</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1991,19 +1969,11 @@
         <v>-899434.3987268215</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
-      </c>
-      <c r="I48" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="J48" t="n">
-        <v>6.41</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2035,14 +2005,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>6.41</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2071,19 +2035,11 @@
         <v>-739564.5740268215</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
-      </c>
-      <c r="I50" t="n">
-        <v>6.37</v>
-      </c>
-      <c r="J50" t="n">
-        <v>6.41</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2115,14 +2071,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>6.41</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2154,14 +2104,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>6.41</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2193,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>6.41</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2232,14 +2170,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>6.41</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2271,14 +2203,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>6.41</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2310,14 +2236,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>6.41</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2349,14 +2269,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>6.41</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2385,19 +2299,13 @@
         <v>-956302.3315268215</v>
       </c>
       <c r="H58" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>6.41</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
-        <v>0.9856396255850233</v>
+        <v>1</v>
       </c>
       <c r="M58" t="inlineStr"/>
     </row>
@@ -2424,7 +2332,7 @@
         <v>-956302.3315268215</v>
       </c>
       <c r="H59" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2655,7 +2563,7 @@
         <v>-838508.2511268215</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2688,7 +2596,7 @@
         <v>-846363.007539302</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2787,7 +2695,7 @@
         <v>-903335.539739302</v>
       </c>
       <c r="H70" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -3843,17 +3751,11 @@
         <v>-2372849.641939303</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
-      </c>
-      <c r="I102" t="n">
-        <v>6.25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3882,17 +3784,15 @@
         <v>-2369821.855239303</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>6.25</v>
       </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3921,15 +3821,15 @@
         <v>-2354905.092239303</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
-      </c>
-      <c r="I104" t="n">
-        <v>6.31</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L104" t="n">
@@ -3960,15 +3860,15 @@
         <v>-2400896.114039303</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
-      </c>
-      <c r="I105" t="n">
-        <v>6.32</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L105" t="n">
@@ -3999,12 +3899,14 @@
         <v>-2336502.373839303</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>6.25</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4038,12 +3940,14 @@
         <v>-2336488.790039303</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>6.26</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4077,10 +3981,14 @@
         <v>-2336498.790039303</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="J108" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4117,7 +4025,9 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4151,12 +4061,12 @@
         <v>-2336495.886639303</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
-      </c>
-      <c r="I110" t="n">
-        <v>6.32</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4193,7 +4103,9 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4230,7 +4142,9 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4267,7 +4181,9 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4304,7 +4220,9 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4341,7 +4259,9 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4378,7 +4298,9 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4415,7 +4337,9 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4452,7 +4376,9 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4489,7 +4415,9 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4526,7 +4454,9 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4563,7 +4493,9 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4600,7 +4532,9 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4637,7 +4571,9 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4674,7 +4610,9 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4711,7 +4649,9 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4748,7 +4688,9 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4785,7 +4727,9 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4822,7 +4766,9 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4859,7 +4805,9 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4896,7 +4844,9 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4933,7 +4883,9 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4970,7 +4922,9 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5007,7 +4961,9 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5044,7 +5000,9 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5081,7 +5039,9 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5118,7 +5078,9 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5155,7 +5117,9 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5189,12 +5153,12 @@
         <v>-2637322.639939304</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
-      </c>
-      <c r="I138" t="n">
-        <v>6.29</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5228,12 +5192,14 @@
         <v>-2550993.658139303</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I139" t="n">
         <v>6.25</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5267,12 +5233,12 @@
         <v>-2551003.658139303</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
-      </c>
-      <c r="I140" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5306,12 +5272,14 @@
         <v>-2550993.658139303</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I141" t="n">
         <v>6.24</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5345,12 +5313,14 @@
         <v>-2548980.546039303</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I142" t="n">
         <v>6.25</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5384,12 +5354,12 @@
         <v>-2548990.546039303</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
-      </c>
-      <c r="I143" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5423,12 +5393,12 @@
         <v>-2548972.546039303</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
-      </c>
-      <c r="I144" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5462,12 +5432,12 @@
         <v>-2548972.546039303</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
-      </c>
-      <c r="I145" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5501,12 +5471,12 @@
         <v>-2547662.546039303</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
-      </c>
-      <c r="I146" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5543,7 +5513,9 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5580,7 +5552,9 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5617,7 +5591,9 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5651,10 +5627,14 @@
         <v>-2540168.546039303</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J150" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5688,12 +5668,14 @@
         <v>-2540168.546039303</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I151" t="n">
         <v>6.27</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5727,12 +5709,14 @@
         <v>-2540150.546039303</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I152" t="n">
         <v>6.27</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5769,7 +5753,9 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5806,7 +5792,9 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5843,7 +5831,9 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5880,7 +5870,9 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5917,7 +5909,9 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5954,7 +5948,9 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5991,7 +5987,9 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6028,7 +6026,9 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6065,7 +6065,9 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6102,7 +6104,9 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6139,7 +6143,9 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6176,7 +6182,9 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6213,7 +6221,9 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6250,7 +6260,9 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6287,7 +6299,9 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6324,7 +6338,9 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6361,7 +6377,9 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6398,7 +6416,9 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6435,7 +6455,9 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6472,7 +6494,9 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6509,7 +6533,9 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6546,7 +6572,9 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6583,7 +6611,9 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6620,7 +6650,9 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6657,7 +6689,9 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6694,7 +6728,9 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6731,7 +6767,9 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6768,7 +6806,9 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6802,12 +6842,12 @@
         <v>-2983148.1054533</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
-      </c>
-      <c r="I181" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6841,12 +6881,12 @@
         <v>-2983158.1054533</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
-      </c>
-      <c r="I182" t="n">
-        <v>6.34</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6883,7 +6923,9 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6920,7 +6962,9 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6957,7 +7001,9 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6994,7 +7040,9 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7031,7 +7079,9 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7068,7 +7118,9 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7102,10 +7154,14 @@
         <v>-2968559.2111533</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>6.31</v>
+      </c>
+      <c r="J189" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7142,7 +7198,9 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7179,7 +7237,9 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7216,7 +7276,9 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7253,7 +7315,9 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7290,7 +7354,9 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7327,7 +7393,9 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7364,7 +7432,9 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7401,7 +7471,9 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7438,7 +7510,9 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7475,7 +7549,9 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7512,7 +7588,9 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7549,7 +7627,9 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7586,7 +7666,9 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7623,7 +7705,9 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7660,7 +7744,9 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7697,7 +7783,9 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7734,7 +7822,9 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7771,7 +7861,9 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7808,7 +7900,9 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7845,7 +7939,9 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7882,7 +7978,9 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7919,7 +8017,9 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7956,7 +8056,9 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7993,7 +8095,9 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8030,7 +8134,9 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8067,7 +8173,9 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8104,7 +8212,9 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8141,7 +8251,9 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8178,7 +8290,9 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8215,7 +8329,9 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8249,10 +8365,12 @@
         <v>-2661779.5513533</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8286,10 +8404,12 @@
         <v>-2666779.5513533</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8326,7 +8446,9 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8363,7 +8485,9 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8400,7 +8524,9 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8437,7 +8563,9 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8474,7 +8602,9 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8511,7 +8641,9 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8548,7 +8680,9 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8585,7 +8719,9 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8622,7 +8758,9 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8656,12 +8794,12 @@
         <v>-1822760.347253299</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
-      </c>
-      <c r="I231" t="n">
-        <v>6.41</v>
-      </c>
-      <c r="J231" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8698,7 +8836,9 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8735,7 +8875,9 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8772,7 +8914,9 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8809,7 +8953,9 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8846,7 +8992,9 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8883,7 +9031,9 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8920,7 +9070,9 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8957,7 +9109,9 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8994,7 +9148,9 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9031,7 +9187,9 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9068,7 +9226,9 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9105,7 +9265,9 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9142,7 +9304,9 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9179,7 +9343,9 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9216,7 +9382,9 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9253,7 +9421,9 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9290,7 +9460,9 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9327,7 +9499,9 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9364,7 +9538,9 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9401,7 +9577,9 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9438,7 +9616,9 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9475,7 +9655,9 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9512,7 +9694,9 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9549,7 +9733,9 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9586,7 +9772,9 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9623,7 +9811,9 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9660,7 +9850,9 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9697,7 +9889,9 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9734,7 +9928,9 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9768,10 +9964,14 @@
         <v>-2117664.818153299</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I261" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="J261" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9805,12 +10005,14 @@
         <v>-2117664.818153299</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I262" t="n">
         <v>6.29</v>
       </c>
-      <c r="J262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9844,12 +10046,12 @@
         <v>-2117664.818153299</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
-      </c>
-      <c r="I263" t="n">
-        <v>6.29</v>
-      </c>
-      <c r="J263" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9883,10 +10085,14 @@
         <v>-2116464.818153299</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="J264" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9923,7 +10129,9 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9960,7 +10168,9 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9997,7 +10207,9 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10034,7 +10246,9 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10068,12 +10282,12 @@
         <v>-3376419.0899533</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
-      </c>
-      <c r="I269" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="J269" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10107,12 +10321,14 @@
         <v>-3361944.5391533</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I270" t="n">
         <v>6.29</v>
       </c>
-      <c r="J270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10146,12 +10362,14 @@
         <v>-3952359.272053299</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I271" t="n">
         <v>6.32</v>
       </c>
-      <c r="J271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10185,12 +10403,14 @@
         <v>-3952359.272053299</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I272" t="n">
         <v>6.23</v>
       </c>
-      <c r="J272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10224,12 +10444,14 @@
         <v>-3952349.272053299</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I273" t="n">
         <v>6.23</v>
       </c>
-      <c r="J273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10263,10 +10485,14 @@
         <v>-3935924.914053299</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I274" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="J274" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10300,10 +10526,14 @@
         <v>-3609203.652353299</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I275" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="J275" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10337,10 +10567,14 @@
         <v>-3609203.652353299</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I276" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="J276" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10374,10 +10608,14 @@
         <v>-3939203.652353299</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I277" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="J277" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10411,10 +10649,14 @@
         <v>-3884833.822053299</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I278" t="n">
+        <v>6.39</v>
+      </c>
+      <c r="J278" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10451,7 +10693,9 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10488,7 +10732,9 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10525,7 +10771,9 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10562,7 +10810,9 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10599,7 +10849,9 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10636,7 +10888,9 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10673,7 +10927,9 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10710,7 +10966,9 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10747,7 +11005,9 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10784,7 +11044,9 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10821,7 +11083,9 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10858,7 +11122,9 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10895,7 +11161,9 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10932,7 +11200,9 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10969,7 +11239,9 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11006,7 +11278,9 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11043,7 +11317,9 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11080,7 +11356,9 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11117,7 +11395,9 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11154,7 +11434,9 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11191,7 +11473,9 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11228,7 +11512,9 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11265,7 +11551,9 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11302,7 +11590,9 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11339,7 +11629,9 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11376,7 +11668,9 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11413,7 +11707,9 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11450,7 +11746,9 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11487,7 +11785,9 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11524,7 +11824,9 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11561,7 +11863,9 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11598,7 +11902,9 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11635,7 +11941,9 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11672,7 +11980,9 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11709,7 +12019,9 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11746,7 +12058,9 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11780,10 +12094,14 @@
         <v>-3029035.276653299</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
-      </c>
-      <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I315" t="n">
+        <v>6.37</v>
+      </c>
+      <c r="J315" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11820,7 +12138,9 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11857,7 +12177,9 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11894,7 +12216,9 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11931,7 +12255,9 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11968,7 +12294,9 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12005,7 +12333,9 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12042,7 +12372,9 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12079,7 +12411,9 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12116,7 +12450,9 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12153,7 +12489,9 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12190,7 +12528,9 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12227,7 +12567,9 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12264,7 +12606,9 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12301,7 +12645,9 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12338,7 +12684,9 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12375,7 +12723,9 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12412,7 +12762,9 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12449,7 +12801,9 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12486,7 +12840,9 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12523,7 +12879,9 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12560,7 +12918,9 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12597,7 +12957,9 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12634,7 +12996,9 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12671,7 +13035,9 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12708,7 +13074,9 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12745,7 +13113,9 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12782,7 +13152,9 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12819,7 +13191,9 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12856,7 +13230,9 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12893,7 +13269,9 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12930,7 +13308,9 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12967,7 +13347,9 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13004,7 +13386,9 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13038,10 +13422,12 @@
         <v>-3122325.047709269</v>
       </c>
       <c r="H349" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13075,10 +13461,12 @@
         <v>-3122325.047709269</v>
       </c>
       <c r="H350" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13112,10 +13500,12 @@
         <v>-3122325.047709269</v>
       </c>
       <c r="H351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13149,10 +13539,12 @@
         <v>-3122225.51500927</v>
       </c>
       <c r="H352" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13186,10 +13578,12 @@
         <v>-3160395.65810927</v>
       </c>
       <c r="H353" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13223,10 +13617,12 @@
         <v>-2452470.426009269</v>
       </c>
       <c r="H354" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13263,7 +13659,9 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13300,7 +13698,9 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13337,7 +13737,9 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13374,7 +13776,9 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13411,7 +13815,9 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13448,7 +13854,9 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13485,7 +13893,9 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13522,7 +13932,9 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13559,7 +13971,9 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13596,7 +14010,9 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13633,7 +14049,9 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13670,7 +14088,9 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13707,7 +14127,9 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13744,7 +14166,9 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13781,7 +14205,9 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13818,7 +14244,9 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13855,7 +14283,9 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13892,7 +14322,9 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13929,7 +14361,9 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13966,7 +14400,9 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14003,7 +14439,9 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14040,7 +14478,9 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14077,7 +14517,9 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14111,16 +14553,20 @@
         <v>-2098936.508465001</v>
       </c>
       <c r="H378" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>6.25</v>
+      </c>
       <c r="K378" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L378" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L378" t="n">
+        <v>1</v>
+      </c>
       <c r="M378" t="inlineStr"/>
     </row>
     <row r="379">
@@ -14146,11 +14592,17 @@
         <v>-2098936.508465001</v>
       </c>
       <c r="H379" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -14179,11 +14631,17 @@
         <v>-2098895.758465001</v>
       </c>
       <c r="H380" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -14215,8 +14673,14 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14245,11 +14709,17 @@
         <v>-1790359.181665001</v>
       </c>
       <c r="H382" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14281,8 +14751,14 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14311,11 +14787,17 @@
         <v>-1987169.373465002</v>
       </c>
       <c r="H384" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14347,8 +14829,14 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14380,8 +14868,14 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14413,8 +14907,14 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14446,8 +14946,14 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14479,8 +14985,14 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14509,11 +15021,17 @@
         <v>-1292087.565449742</v>
       </c>
       <c r="H390" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14545,8 +15063,14 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14575,11 +15099,17 @@
         <v>-1347575.102449742</v>
       </c>
       <c r="H392" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14608,11 +15138,17 @@
         <v>-1362248.386849742</v>
       </c>
       <c r="H393" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14641,11 +15177,17 @@
         <v>-1377218.446649742</v>
       </c>
       <c r="H394" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14674,11 +15216,17 @@
         <v>70958.41365025821</v>
       </c>
       <c r="H395" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14707,11 +15255,17 @@
         <v>70958.41365025821</v>
       </c>
       <c r="H396" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14743,8 +15297,14 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14776,8 +15336,14 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14809,8 +15375,14 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14842,8 +15414,14 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14875,8 +15453,14 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14908,8 +15492,14 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14941,8 +15531,14 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14974,8 +15570,14 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -15007,8 +15609,14 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -15040,8 +15648,14 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -15073,8 +15687,14 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -15106,8 +15726,14 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -15139,8 +15765,14 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -15172,8 +15804,14 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -15202,15 +15840,23 @@
         <v>-306943.9454497418</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L411" t="n">
-        <v>1</v>
-      </c>
-      <c r="M411" t="inlineStr"/>
+        <v>1.0622</v>
+      </c>
+      <c r="M411" t="n">
+        <v>1.03525641025641</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" s="1" t="n">
@@ -15235,7 +15881,7 @@
         <v>-651333.0820497419</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -15268,7 +15914,7 @@
         <v>-637258.3754070132</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -15301,7 +15947,7 @@
         <v>-637258.3754070132</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -15334,7 +15980,7 @@
         <v>-718610.4176070133</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -15367,7 +16013,7 @@
         <v>-1671324.653407013</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -15400,7 +16046,7 @@
         <v>-1671313.653407013</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -15433,7 +16079,7 @@
         <v>-1671759.653407013</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -15466,7 +16112,7 @@
         <v>-1671779.653407013</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -15499,7 +16145,7 @@
         <v>-1671638.653407013</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -15532,7 +16178,7 @@
         <v>-1740575.989607013</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -15565,7 +16211,7 @@
         <v>-1740362.989607013</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -15598,7 +16244,7 @@
         <v>-1779661.568207013</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -15631,7 +16277,7 @@
         <v>-1714576.568207013</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -15664,7 +16310,7 @@
         <v>-1783513.904407013</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -15796,7 +16442,7 @@
         <v>-2301928.296707013</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -15862,7 +16508,7 @@
         <v>-1160647.825430147</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -15895,7 +16541,7 @@
         <v>-1191178.221830147</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -15928,7 +16574,7 @@
         <v>-1191178.221830147</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -15961,7 +16607,7 @@
         <v>-1191145.221830147</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -15994,7 +16640,7 @@
         <v>-1191145.221830147</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -16027,7 +16673,7 @@
         <v>-1218219.653430147</v>
       </c>
       <c r="H436" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -16060,7 +16706,7 @@
         <v>-1218208.653430147</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -16093,7 +16739,7 @@
         <v>-1227655.341130147</v>
       </c>
       <c r="H438" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -16126,7 +16772,7 @@
         <v>-1194997.998030147</v>
       </c>
       <c r="H439" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -16159,7 +16805,7 @@
         <v>-1194997.998030147</v>
       </c>
       <c r="H440" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -16192,7 +16838,7 @@
         <v>-1194997.998030147</v>
       </c>
       <c r="H441" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -16225,7 +16871,7 @@
         <v>-1292978.328230147</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -16291,7 +16937,7 @@
         <v>-2491717.367430147</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -16324,7 +16970,7 @@
         <v>-2491880.367430147</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -17721,6 +18367,6 @@
       <c r="M487" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-31 BackTest FZZ.xlsx
+++ b/BackTest/2019-10-31 BackTest FZZ.xlsx
@@ -4906,10 +4906,14 @@
         <v>-2637312.639939304</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="J137" t="n">
+        <v>6.24</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
@@ -4942,8 +4946,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -4972,11 +4982,19 @@
         <v>-2550993.658139303</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="J139" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5005,11 +5023,19 @@
         <v>-2551003.658139303</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="J140" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5038,11 +5064,19 @@
         <v>-2550993.658139303</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="J141" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5077,9 +5111,13 @@
         <v>6.25</v>
       </c>
       <c r="J142" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="K142" t="inlineStr"/>
+        <v>6.24</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5108,15 +5146,17 @@
         <v>-2548990.546039303</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>6.33</v>
+      </c>
       <c r="J143" t="n">
-        <v>6.25</v>
+        <v>6.24</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L143" t="n">
@@ -5147,15 +5187,17 @@
         <v>-2548972.546039303</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>6.25</v>
+      </c>
       <c r="J144" t="n">
-        <v>6.25</v>
+        <v>6.24</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L144" t="n">
@@ -5186,11 +5228,19 @@
         <v>-2548972.546039303</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J145" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5219,11 +5269,19 @@
         <v>-2547662.546039303</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J146" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5252,11 +5310,19 @@
         <v>-2547672.546039303</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="J147" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5285,11 +5351,19 @@
         <v>-2540058.546039303</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>6.27</v>
+      </c>
+      <c r="J148" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5318,11 +5392,19 @@
         <v>-2540058.546039303</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="J149" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5354,8 +5436,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5384,11 +5472,19 @@
         <v>-2540168.546039303</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>6.27</v>
+      </c>
+      <c r="J151" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5417,11 +5513,19 @@
         <v>-2540150.546039303</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>6.27</v>
+      </c>
+      <c r="J152" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5453,8 +5557,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5486,8 +5596,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5519,8 +5635,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5552,8 +5674,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5585,8 +5713,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5618,8 +5752,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5651,8 +5791,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5684,8 +5830,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5717,8 +5869,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5750,8 +5908,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5783,8 +5947,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5816,8 +5986,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5849,8 +6025,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5882,8 +6064,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5915,8 +6103,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5948,8 +6142,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -5981,8 +6181,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6014,8 +6220,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6047,8 +6259,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6080,8 +6298,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6113,8 +6337,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6146,8 +6376,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6179,8 +6415,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6212,8 +6454,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6245,8 +6493,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6278,8 +6532,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6311,8 +6571,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6344,8 +6610,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6377,8 +6649,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6410,8 +6688,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6443,8 +6727,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6476,8 +6766,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6509,8 +6805,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6542,8 +6844,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6572,11 +6880,19 @@
         <v>-2983177.5575533</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>6.31</v>
+      </c>
+      <c r="J187" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6605,11 +6921,19 @@
         <v>-2983187.5575533</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="J188" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6638,11 +6962,19 @@
         <v>-2968559.2111533</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>6.31</v>
+      </c>
+      <c r="J189" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6671,11 +7003,19 @@
         <v>-2968559.2111533</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="J190" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6707,8 +7047,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6737,11 +7083,19 @@
         <v>-2668384.9882533</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="J192" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6773,8 +7127,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6806,8 +7166,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6839,8 +7205,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6872,8 +7244,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6905,8 +7283,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6938,8 +7322,14 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -6971,8 +7361,14 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7004,8 +7400,14 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7037,8 +7439,14 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7070,8 +7478,14 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7103,8 +7517,14 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7136,8 +7556,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7169,8 +7595,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7202,8 +7634,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7235,8 +7673,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7268,8 +7712,14 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7301,8 +7751,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7334,8 +7790,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7367,8 +7829,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7397,15 +7865,17 @@
         <v>-2661779.5513533</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
-      </c>
-      <c r="I212" t="n">
-        <v>6.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="K212" t="inlineStr"/>
+        <v>6.24</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7438,11 +7908,11 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="n">
-        <v>6.38</v>
+        <v>6.24</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L213" t="n">
@@ -7477,11 +7947,11 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="n">
-        <v>6.38</v>
+        <v>6.24</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L214" t="n">
@@ -7515,8 +7985,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7548,8 +8024,14 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7581,8 +8063,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7611,13 +8099,19 @@
         <v>-2661779.5513533</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L218" t="n">
-        <v>1</v>
+        <v>1.023846153846154</v>
       </c>
       <c r="M218" t="inlineStr"/>
     </row>
@@ -7677,14 +8171,10 @@
         <v>-2661779.5513533</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
-      </c>
-      <c r="I220" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="J220" t="n">
-        <v>6.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
@@ -7714,17 +8204,11 @@
         <v>-2666779.5513533</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7753,17 +8237,11 @@
         <v>-2666878.440153299</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7792,14 +8270,10 @@
         <v>-2666868.440153299</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
-      </c>
-      <c r="I223" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="J223" t="n">
-        <v>6.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
@@ -7829,17 +8303,11 @@
         <v>-2666888.440153299</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7871,14 +8339,8 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7907,19 +8369,11 @@
         <v>-2666888.440153299</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
-      </c>
-      <c r="I226" t="n">
-        <v>6.41</v>
-      </c>
-      <c r="J226" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7948,19 +8402,11 @@
         <v>-2718093.440153299</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
-      </c>
-      <c r="I227" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="J227" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -7989,19 +8435,11 @@
         <v>-2718093.440153299</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
-      </c>
-      <c r="I228" t="n">
-        <v>6.37</v>
-      </c>
-      <c r="J228" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8030,19 +8468,11 @@
         <v>-2718093.440153299</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
-      </c>
-      <c r="I229" t="n">
-        <v>6.37</v>
-      </c>
-      <c r="J229" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8071,19 +8501,11 @@
         <v>-1821751.318553299</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
-      </c>
-      <c r="I230" t="n">
-        <v>6.37</v>
-      </c>
-      <c r="J230" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8112,17 +8534,11 @@
         <v>-1822760.347253299</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8151,17 +8567,11 @@
         <v>-1822760.347253299</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8190,19 +8600,11 @@
         <v>-1822748.347253299</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
-      </c>
-      <c r="I233" t="n">
-        <v>6.36</v>
-      </c>
-      <c r="J233" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8234,14 +8636,8 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8270,17 +8666,11 @@
         <v>-1674387.706353299</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8309,17 +8699,11 @@
         <v>-1674397.706353299</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8348,17 +8732,11 @@
         <v>-1674387.706353299</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8390,14 +8768,8 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8429,14 +8801,8 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8468,14 +8834,8 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8507,14 +8867,8 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8546,14 +8900,8 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8582,19 +8930,11 @@
         <v>-1816536.750653299</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
-      </c>
-      <c r="I243" t="n">
-        <v>6.34</v>
-      </c>
-      <c r="J243" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8626,14 +8966,8 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8665,14 +8999,8 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8704,14 +9032,8 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8743,14 +9065,8 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8782,14 +9098,8 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8821,14 +9131,8 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8860,14 +9164,8 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8899,14 +9197,8 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8938,14 +9230,8 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8977,14 +9263,8 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9016,14 +9296,8 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9052,19 +9326,11 @@
         <v>-1809592.108853299</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
-      </c>
-      <c r="I255" t="n">
-        <v>6.27</v>
-      </c>
-      <c r="J255" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9093,19 +9359,11 @@
         <v>-1809581.108853299</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
-      </c>
-      <c r="I256" t="n">
-        <v>6.27</v>
-      </c>
-      <c r="J256" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9137,14 +9395,8 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9176,14 +9428,8 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9212,19 +9458,11 @@
         <v>-2126408.0521533</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
-      </c>
-      <c r="I259" t="n">
-        <v>6.28</v>
-      </c>
-      <c r="J259" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9256,14 +9494,8 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9292,19 +9524,11 @@
         <v>-2117664.818153299</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
-      </c>
-      <c r="I261" t="n">
-        <v>6.29</v>
-      </c>
-      <c r="J261" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9333,19 +9557,11 @@
         <v>-2117664.818153299</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
-      </c>
-      <c r="I262" t="n">
-        <v>6.29</v>
-      </c>
-      <c r="J262" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9374,19 +9590,11 @@
         <v>-2117664.818153299</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
-      </c>
-      <c r="I263" t="n">
-        <v>6.29</v>
-      </c>
-      <c r="J263" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9415,19 +9623,11 @@
         <v>-2116464.818153299</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
-      </c>
-      <c r="I264" t="n">
-        <v>6.29</v>
-      </c>
-      <c r="J264" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9456,19 +9656,11 @@
         <v>-2916464.818153299</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
-      </c>
-      <c r="I265" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="J265" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9500,14 +9692,8 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9536,19 +9722,11 @@
         <v>-3377649.0899533</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
-      </c>
-      <c r="I267" t="n">
-        <v>6.23</v>
-      </c>
-      <c r="J267" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9577,19 +9755,11 @@
         <v>-3377619.0899533</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
-      </c>
-      <c r="I268" t="n">
-        <v>6.24</v>
-      </c>
-      <c r="J268" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9618,19 +9788,11 @@
         <v>-3376419.0899533</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
-      </c>
-      <c r="I269" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="J269" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9659,19 +9821,11 @@
         <v>-3361944.5391533</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
-      </c>
-      <c r="I270" t="n">
-        <v>6.29</v>
-      </c>
-      <c r="J270" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9700,19 +9854,11 @@
         <v>-3952359.272053299</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
-      </c>
-      <c r="I271" t="n">
-        <v>6.32</v>
-      </c>
-      <c r="J271" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9741,19 +9887,11 @@
         <v>-3952359.272053299</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
-      </c>
-      <c r="I272" t="n">
-        <v>6.23</v>
-      </c>
-      <c r="J272" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9782,19 +9920,11 @@
         <v>-3952349.272053299</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
-      </c>
-      <c r="I273" t="n">
-        <v>6.23</v>
-      </c>
-      <c r="J273" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9823,19 +9953,11 @@
         <v>-3935924.914053299</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
-      </c>
-      <c r="I274" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="J274" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9864,19 +9986,11 @@
         <v>-3609203.652353299</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
-      </c>
-      <c r="I275" t="n">
-        <v>6.29</v>
-      </c>
-      <c r="J275" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9908,14 +10022,8 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9947,14 +10055,8 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9986,14 +10088,8 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10025,14 +10121,8 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10064,14 +10154,8 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10103,14 +10187,8 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10142,14 +10220,8 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10181,14 +10253,8 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10220,14 +10286,8 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10259,14 +10319,8 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10298,14 +10352,8 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10337,14 +10385,8 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10376,14 +10418,8 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10412,17 +10448,15 @@
         <v>-1842286.508553299</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I289" t="n">
+        <v>6.31</v>
+      </c>
       <c r="J289" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>6.31</v>
+      </c>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10455,11 +10489,11 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="n">
-        <v>6.38</v>
+        <v>6.31</v>
       </c>
       <c r="K290" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L290" t="n">
@@ -10494,11 +10528,11 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="n">
-        <v>6.38</v>
+        <v>6.31</v>
       </c>
       <c r="K291" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L291" t="n">
@@ -10532,14 +10566,8 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10571,14 +10599,8 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10610,14 +10632,8 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10649,14 +10665,8 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10688,14 +10698,8 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10727,14 +10731,8 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10766,14 +10764,8 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10805,14 +10797,8 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10844,14 +10830,8 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10883,14 +10863,8 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10922,14 +10896,8 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10961,14 +10929,8 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11000,14 +10962,8 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11039,14 +10995,8 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11078,14 +11028,8 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11117,14 +11061,8 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11156,14 +11094,8 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11195,14 +11127,8 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11234,14 +11160,8 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11273,14 +11193,8 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11312,14 +11226,8 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11348,15 +11256,15 @@
         <v>-3029064.902753299</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
-      </c>
-      <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>6.38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I313" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L313" t="n">
@@ -11387,12 +11295,12 @@
         <v>-3029064.902753299</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
-      </c>
-      <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>6.38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I314" t="n">
+        <v>6.37</v>
+      </c>
+      <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11426,12 +11334,12 @@
         <v>-3029035.276653299</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
-      </c>
-      <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>6.38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I315" t="n">
+        <v>6.37</v>
+      </c>
+      <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11468,9 +11376,7 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>6.38</v>
-      </c>
+      <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11507,9 +11413,7 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>6.38</v>
-      </c>
+      <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11543,19 +11447,17 @@
         <v>-2671845.708753299</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>6.38</v>
-      </c>
+      <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L318" t="n">
-        <v>1.007539184952978</v>
+        <v>1</v>
       </c>
       <c r="M318" t="inlineStr"/>
     </row>
@@ -11586,7 +11488,11 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11619,7 +11525,11 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11648,11 +11558,15 @@
         <v>-2673365.708753299</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11681,11 +11595,15 @@
         <v>-2295446.1253533</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11714,11 +11632,15 @@
         <v>-2295446.1253533</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11751,7 +11673,11 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11784,7 +11710,11 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11817,7 +11747,11 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11850,7 +11784,11 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11883,7 +11821,11 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11916,7 +11858,11 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11949,7 +11895,11 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11982,7 +11932,11 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12015,7 +11969,11 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12048,7 +12006,11 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12081,7 +12043,11 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12114,7 +12080,11 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12147,7 +12117,11 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12180,7 +12154,11 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12213,7 +12191,11 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12246,7 +12228,11 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12279,7 +12265,11 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12312,7 +12302,11 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12345,7 +12339,11 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12378,7 +12376,11 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12411,7 +12413,11 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12444,7 +12450,11 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12477,7 +12487,11 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12510,7 +12524,11 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12543,7 +12561,11 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12576,7 +12598,11 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12609,7 +12635,11 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12642,7 +12672,11 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12675,7 +12709,11 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12708,7 +12746,11 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12741,7 +12783,11 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12774,7 +12820,11 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12807,7 +12857,11 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12840,7 +12894,11 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12873,7 +12931,11 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12906,7 +12968,11 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12939,7 +13005,11 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12972,7 +13042,11 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13005,7 +13079,11 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13038,7 +13116,11 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13071,7 +13153,11 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13104,7 +13190,11 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13137,7 +13227,11 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13170,7 +13264,11 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13203,7 +13301,11 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13236,7 +13338,11 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13269,7 +13375,11 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13302,7 +13412,11 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13335,7 +13449,11 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13368,7 +13486,11 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13401,7 +13523,11 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13434,7 +13560,11 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13467,7 +13597,11 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13500,7 +13634,11 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13533,7 +13671,11 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13566,7 +13708,11 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13599,7 +13745,11 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13632,7 +13782,11 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13665,7 +13819,11 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13698,7 +13856,11 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13731,7 +13893,11 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13764,7 +13930,11 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13797,7 +13967,11 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13830,7 +14004,11 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13863,7 +14041,11 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13896,7 +14078,11 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13929,7 +14115,11 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13962,7 +14152,11 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13995,7 +14189,11 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14028,7 +14226,11 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14061,7 +14263,11 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14094,7 +14300,11 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14123,14 +14333,16 @@
         <v>70958.41365025821</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
-      <c r="L396" t="n">
-        <v>1</v>
-      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L396" t="inlineStr"/>
       <c r="M396" t="inlineStr"/>
     </row>
     <row r="397">
@@ -14321,7 +14533,7 @@
         <v>-170963.7505497418</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -14354,7 +14566,7 @@
         <v>-169432.7505497418</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -14387,7 +14599,7 @@
         <v>-169421.7505497418</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -14420,7 +14632,7 @@
         <v>-229076.8980497418</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -14486,7 +14698,7 @@
         <v>-384385.2515497418</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -14519,7 +14731,7 @@
         <v>-317410.2515497418</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
